--- a/excel/09.xlsx
+++ b/excel/09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0379424-C2A4-41D0-89FD-7CF0DDFAA8EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D90233A-38D6-47D0-8B27-822B610D627E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="3370" windowWidth="20520" windowHeight="15540" xr2:uid="{11FE5D58-999C-48B0-B210-FB189574A517}"/>
+    <workbookView xWindow="6300" yWindow="3710" windowWidth="21090" windowHeight="15600" xr2:uid="{11FE5D58-999C-48B0-B210-FB189574A517}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="125">
   <si>
     <t>今日やること</t>
-  </si>
-  <si>
-    <t>1. 教科書の第9章</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>2. 報告</t>
@@ -1031,25 +1027,6 @@
     </rPh>
     <rPh sb="8" eb="11">
       <t>キタイチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←分散の平方根=標準偏差　約1.21になるはず．</t>
-    <rPh sb="1" eb="3">
-      <t>ブンサン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヘイホウコン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンサ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヤク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1182,22 +1159,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>←合計=分散　約1.46になるはず．(正確には35/24）</t>
-    <rPh sb="1" eb="3">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブンサン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セイカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>↑の600個のセルに，「=(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))/3」と入力してください．</t>
     <rPh sb="5" eb="6">
       <t>コ</t>
@@ -1208,56 +1169,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>←平均（AVERAGE）を求めてください．3.5に近い値になるはずです．（ヒント：600個の範囲はAからWSまでです．）</t>
-    <rPh sb="1" eb="3">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←分散（VAR.P）を求めてください．2.92に近い値になるはずです．本当はVAR.Sを使うのですが，今は気にしない．</t>
-    <rPh sb="1" eb="3">
-      <t>ブンサン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ホントウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>←標準偏差（STDEV.P）を求めてください．本当はSTDEV.Sを使うのですが，今は気にしない．</t>
     <rPh sb="1" eb="3">
       <t>ヒョウジュン</t>
@@ -1305,116 +1216,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>これらはすでに計算してありますが，正確な値を次のように計算します．</t>
-    <rPh sb="7" eb="9">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セイカク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←分散（VAR.P）を求めてください．1.46に近い値になるはずです．本当はVAR.Sを使うのですが，今は気にしない．</t>
-    <rPh sb="1" eb="3">
-      <t>ブンサン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ホントウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←合計=分散　約2.92になるはず．（正確には35/12）</t>
-    <rPh sb="1" eb="3">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブンサン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セイカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←分散の平方根（SQRT）=標準偏差　約1.71になるはず．</t>
-    <rPh sb="1" eb="3">
-      <t>ブンサン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヘイホウコン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヘンサ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヤク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←分散（VAR.P）を求めてください．0.97に近い値になるはずです．本当はVAR.Sを使うのですが，今は気にしない．</t>
-    <rPh sb="1" eb="3">
-      <t>ブンサン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ホントウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ヒストグラムの例を載せておきます．</t>
     <rPh sb="7" eb="8">
       <t>レイ</t>
@@ -1512,75 +1313,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サイコロ4個ならこんな感じ．（分散は35/48）</t>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ブンサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サイコロ5個ならこんな感じ．（分散は7/12）</t>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ブンサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>という具合に，サイコロの数が多くなると，出た目の平均（3.5）のばらつきは小さくなり，確率分布の形はいわゆる「釣りがね形」に近づきます．</t>
-    <rPh sb="3" eb="5">
-      <t>グアイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ブンプ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>チカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>この，「釣りがね形」は正確には正規分布といいます．</t>
     <rPh sb="4" eb="5">
       <t>ツ</t>
@@ -1600,58 +1332,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>今調べたのはサイコロの場合だけですが，どんな確率分布でも，それに従う確率変数の平均は，確率変数の数が多くなると正規分布に近づきます．</t>
-    <rPh sb="0" eb="1">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ブンプ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>セイキ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ブンプ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>チカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>これを中心極限定理といいます．</t>
     <rPh sb="3" eb="9">
       <t>チュウシンキョクゲンテイリ</t>
@@ -1702,17 +1382,524 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サイコロ10個ならこんな感じ．（分散は7/24）</t>
+    <t>サイコロの数</t>
+    <rPh sb="5" eb="6">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均の期待値</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>キタイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均の分散</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均の標準偏差</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>統計学を少し勉強すると，サイコロの数をnとして，平均の期待値は3.5で一定，平均の分散は35/12/n，平均の標準偏差はsqrt(35/12/n)であることがわかります．</t>
+    <rPh sb="0" eb="3">
+      <t>トウケイガク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「足し合わせたものの平均」の散らばりが，1/√nで小さくなっていくことは憶えておくといいでしょう．</t>
+    <rPh sb="1" eb="2">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←分散（VAR.P）を求めてください．35/12=2.92に近い値になるはずです．本当はVAR.Sを使うのですが，今は気にしない．</t>
+    <rPh sb="1" eb="3">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←分散（VAR.P）を求めてください．35/23=1.46に近い値になるはずです．本当はVAR.Sを使うのですが，今は気にしない．</t>
+    <rPh sb="1" eb="3">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これらはすでにシミュレーションで求めてありますが，正確な値を次のように計算します．</t>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←合計=分散　35/12になるはず．</t>
+    <rPh sb="1" eb="3">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←分散の平方根（SQRT）=標準偏差</t>
+    <rPh sb="1" eb="3">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヘイホウコン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←合計=分散　35/24になるはず．</t>
+    <rPh sb="1" eb="3">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←分散の平方根=標準偏差</t>
+    <rPh sb="1" eb="3">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヘイホウコン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←分散（VAR.P）を求めてください．35/36=0.97に近い値になるはずです．本当はVAR.Sを使うのですが，今は気にしない．</t>
+    <rPh sb="1" eb="3">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左がシミュレーション，右が正確な確率．曲線については後述．</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キョクセン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウジュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイコロの数が多くなると，出た目の平均（3.5）のばらつきは小さくなり，確率分布の形はいわゆる「釣りがね形」に近づきます．</t>
+    <rPh sb="5" eb="6">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これまでに掲載したグラフの曲線は，平均が3.5，標準偏差がsqrt(35/12/n)の正規分布だと思って計算した値です．（よくわからなくていいです．）</t>
+    <rPh sb="5" eb="7">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョクセン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイコロ4個ならこんな感じ．（正確な分散は35/48）</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイコロ5個ならこんな感じ．（正確な分散は7/12）</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイコロ10個ならこんな感じ．（正確な分散は7/24）</t>
     <rPh sb="6" eb="7">
       <t>コ</t>
     </rPh>
     <rPh sb="12" eb="13">
       <t>カン</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="19" eb="21">
       <t>ブンサン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>つまり，サイコロの数が多くなると，サイコロの目の平均は，3.5に近いものだけになるということです．（直観的には明らかかもしれません．1万個の平均はほぼ3.5になりそうでしょう．）</t>
+    <rPh sb="9" eb="10">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>チョッカンテキ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この，平均（のような統計量）の標準偏差のことを，標準誤差といいます．</t>
+    <rPh sb="3" eb="5">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>トウケイリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゴサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今回調べたのはサイコロの場合だけですが，（分散が有限な）どんな確率分布でも，それに従う確率変数の平均は，確率変数の数が多くなると正規分布に近づきます．</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←平均（AVERAGE）を求めてください．3.5に近い値になるはずです．（ヒント：600個の範囲はAからWBまでです．）</t>
+    <rPh sb="1" eb="3">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 教科書の第10章</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1723,7 +1910,7 @@
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1769,6 +1956,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1798,7 +1992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1822,6 +2016,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3733,13 +3930,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>649941</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>119529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>620059</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>83670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3769,65 +3966,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>455706</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>224118</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>425824</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>175746</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="グラフィックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48375AE0-A1C0-47BD-83B4-1A81A5DC655E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5715000" y="38667765"/>
-          <a:ext cx="4572000" cy="2962275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3844,10 +3991,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3871,13 +4018,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3920,22 +4067,72 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="グラフィックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F7272A-8DCE-4A8A-A657-8FDFEB41910F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6070600" y="41890950"/>
+          <a:ext cx="4676775" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>302</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="グラフィックス 12">
+        <xdr:cNvPr id="7" name="グラフィックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1787D830-63AD-4A2C-826C-3A9124BB4A49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBF2BC7-E5BD-43B6-9BA6-2F88C496403E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3957,8 +4154,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="65151000"/>
-          <a:ext cx="4572000" cy="3019425"/>
+          <a:off x="5943600" y="66065400"/>
+          <a:ext cx="4524375" cy="2828925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3969,23 +4166,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>306</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>319</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>193675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="グラフィックス 13">
+        <xdr:cNvPr id="18" name="グラフィックス 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3759F055-5BAA-4810-AEF3-6F62CC1574A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571FB4D0-7DAE-4A2A-8F46-A30791EED63D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4007,8 +4204,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4953000" y="69703950"/>
-          <a:ext cx="4572000" cy="2962275"/>
+          <a:off x="5727700" y="70288150"/>
+          <a:ext cx="4676775" cy="2828925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4019,23 +4216,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>321</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>334</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="グラフィックス 14">
+        <xdr:cNvPr id="19" name="グラフィックス 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BF1FC3-56C0-42E6-8FF3-EF92B855D84D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83F1D701-A114-423D-938F-E249BFB09CBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4057,8 +4254,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4953000" y="73069450"/>
-          <a:ext cx="4572000" cy="2962275"/>
+          <a:off x="819150" y="74066400"/>
+          <a:ext cx="7620000" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4069,23 +4266,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>336</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>349</xdr:row>
-      <xdr:rowOff>187325</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="グラフィックス 15">
+        <xdr:cNvPr id="20" name="グラフィックス 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4BB7845-9490-4054-9087-0A918BEEBA1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368E3090-3259-41C1-839A-4E8781247EF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4107,8 +4304,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4940300" y="76549250"/>
-          <a:ext cx="4572000" cy="2962275"/>
+          <a:off x="838200" y="77419200"/>
+          <a:ext cx="7620000" cy="2400300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4119,23 +4316,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>351</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>364</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="グラフィックス 16">
+        <xdr:cNvPr id="21" name="グラフィックス 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59A7E34-E990-4795-ACA6-325E125ECAD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7C962F-4342-43B4-BFBB-CB07440C185E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4157,8 +4354,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4997450" y="80352900"/>
-          <a:ext cx="4572000" cy="2743200"/>
+          <a:off x="660400" y="80695800"/>
+          <a:ext cx="7620000" cy="2400300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4467,21 +4664,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4667DA-FA46-42F1-8095-44331F6F09BA}">
-  <dimension ref="A1:WB369"/>
+  <dimension ref="A1:WB388"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="R1">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -4498,42 +4697,42 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4545,48 +4744,48 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>1234567</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4657,23 +4856,23 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
         <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4744,23 +4943,23 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
         <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4831,50 +5030,50 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4933,35 +5132,35 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
         <v>9</v>
-      </c>
-      <c r="B80" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5021,35 +5220,35 @@
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C87" s="4"/>
       <c r="D87" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
         <v>9</v>
-      </c>
-      <c r="B94" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5109,28 +5308,28 @@
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C101" s="4"/>
       <c r="D101" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5143,7 +5342,7 @@
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5156,7 +5355,7 @@
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5169,7 +5368,7 @@
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5182,7 +5381,7 @@
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5195,7 +5394,7 @@
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5208,36 +5407,36 @@
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C113" s="4"/>
       <c r="D113" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5297,43 +5496,43 @@
     <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="7"/>
       <c r="C126" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:600" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:600" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:600" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133" spans="1:600" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="4"/>
       <c r="B133" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:600" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:600" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:600" x14ac:dyDescent="0.55000000000000004">
@@ -7141,2255 +7340,2248 @@
     <row r="138" spans="1:600" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="139" spans="1:600" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:600" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:600" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="4"/>
       <c r="B142" s="5" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
     </row>
     <row r="143" spans="1:600" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="4"/>
       <c r="B143" s="5" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144" spans="1:600" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="4"/>
       <c r="B144" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="6"/>
+      <c r="B145" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" t="s">
+      <c r="A147" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
         <v>9</v>
-      </c>
-      <c r="B149" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150">
-        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
         <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>26</v>
+      </c>
+      <c r="C168" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" t="s">
-        <v>9</v>
-      </c>
-      <c r="B167" t="s">
-        <v>27</v>
-      </c>
-      <c r="C167" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169">
         <v>1</v>
       </c>
-      <c r="B168">
+      <c r="B169">
         <f>1/36</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C168" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169">
+      <c r="C169" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170">
         <v>1.5</v>
       </c>
-      <c r="B169">
+      <c r="B170">
         <f>2/36</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="C169" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170">
+      <c r="C170" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171">
         <v>2</v>
       </c>
-      <c r="B170">
+      <c r="B171">
         <f>3/36</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C170" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171">
+      <c r="C171" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172">
         <v>2.5</v>
       </c>
-      <c r="B171" s="4"/>
-    </row>
-    <row r="172" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172">
+      <c r="B172" s="4"/>
+    </row>
+    <row r="173" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173">
         <v>3</v>
       </c>
-      <c r="B172" s="4"/>
-      <c r="H172" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I172" s="10"/>
-      <c r="J172" s="10"/>
-      <c r="K172" s="10"/>
-      <c r="L172" s="10"/>
-      <c r="M172" s="10"/>
-      <c r="N172" s="10"/>
-      <c r="O172" s="10"/>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173">
-        <v>3.5</v>
-      </c>
       <c r="B173" s="4"/>
-      <c r="H173" s="10"/>
-      <c r="I173" s="10"/>
-      <c r="J173" s="10"/>
-      <c r="K173" s="10"/>
-      <c r="L173" s="10"/>
-      <c r="M173" s="10"/>
-      <c r="N173" s="10"/>
-      <c r="O173" s="10"/>
+      <c r="H173" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="11"/>
+      <c r="M173" s="11"/>
+      <c r="N173" s="11"/>
+      <c r="O173" s="11"/>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="B174" s="4"/>
-      <c r="H174" s="10"/>
-      <c r="I174" s="10"/>
-      <c r="J174" s="10"/>
-      <c r="K174" s="10"/>
-      <c r="L174" s="10"/>
-      <c r="M174" s="10"/>
-      <c r="N174" s="10"/>
-      <c r="O174" s="10"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="11"/>
+      <c r="M174" s="11"/>
+      <c r="N174" s="11"/>
+      <c r="O174" s="11"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="B175" s="4"/>
-      <c r="H175" s="10"/>
-      <c r="I175" s="10"/>
-      <c r="J175" s="10"/>
-      <c r="K175" s="10"/>
-      <c r="L175" s="10"/>
-      <c r="M175" s="10"/>
-      <c r="N175" s="10"/>
-      <c r="O175" s="10"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="L175" s="11"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="11"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="B176" s="4"/>
-      <c r="H176" s="10"/>
-      <c r="I176" s="10"/>
-      <c r="J176" s="10"/>
-      <c r="K176" s="10"/>
-      <c r="L176" s="10"/>
-      <c r="M176" s="10"/>
-      <c r="N176" s="10"/>
-      <c r="O176" s="10"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="11"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+      <c r="O176" s="11"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="B177" s="4"/>
-      <c r="H177" s="10"/>
-      <c r="I177" s="10"/>
-      <c r="J177" s="10"/>
-      <c r="K177" s="10"/>
-      <c r="L177" s="10"/>
-      <c r="M177" s="10"/>
-      <c r="N177" s="10"/>
-      <c r="O177" s="10"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+      <c r="L177" s="11"/>
+      <c r="M177" s="11"/>
+      <c r="N177" s="11"/>
+      <c r="O177" s="11"/>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
+        <v>5.5</v>
+      </c>
+      <c r="B178" s="4"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
+      <c r="M178" s="11"/>
+      <c r="N178" s="11"/>
+      <c r="O178" s="11"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179">
         <v>6</v>
       </c>
-      <c r="B178">
+      <c r="B179">
         <f>1/36</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C178" t="s">
-        <v>98</v>
-      </c>
-      <c r="H178" s="10"/>
-      <c r="I178" s="10"/>
-      <c r="J178" s="10"/>
-      <c r="K178" s="10"/>
-      <c r="L178" s="10"/>
-      <c r="M178" s="10"/>
-      <c r="N178" s="10"/>
-      <c r="O178" s="10"/>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B179" s="4"/>
-      <c r="C179" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="C179" t="s">
+        <v>88</v>
+      </c>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="4"/>
-      <c r="C180" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" t="s">
-        <v>64</v>
+      <c r="C180" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B181" s="4"/>
+      <c r="C181" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="200" spans="1:600" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="199" spans="1:600" x14ac:dyDescent="0.55000000000000004">
-      <c r="A199" t="s">
+    <row r="202" spans="1:600" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="201" spans="1:600" x14ac:dyDescent="0.55000000000000004">
-      <c r="A201" t="s">
+    <row r="204" spans="1:600" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>4</v>
+      </c>
+      <c r="E204">
+        <v>5</v>
+      </c>
+      <c r="F204">
+        <v>6</v>
+      </c>
+      <c r="G204">
+        <v>7</v>
+      </c>
+      <c r="H204">
+        <v>8</v>
+      </c>
+      <c r="I204">
+        <v>9</v>
+      </c>
+      <c r="J204">
+        <v>10</v>
+      </c>
+      <c r="K204">
+        <v>11</v>
+      </c>
+      <c r="L204">
+        <v>12</v>
+      </c>
+      <c r="M204">
+        <v>13</v>
+      </c>
+      <c r="N204">
+        <v>14</v>
+      </c>
+      <c r="O204">
+        <v>15</v>
+      </c>
+      <c r="P204">
+        <v>16</v>
+      </c>
+      <c r="Q204">
+        <v>17</v>
+      </c>
+      <c r="R204">
+        <v>18</v>
+      </c>
+      <c r="S204">
+        <v>19</v>
+      </c>
+      <c r="T204">
+        <v>20</v>
+      </c>
+      <c r="U204">
+        <v>21</v>
+      </c>
+      <c r="V204">
+        <v>22</v>
+      </c>
+      <c r="W204">
+        <v>23</v>
+      </c>
+      <c r="X204">
+        <v>24</v>
+      </c>
+      <c r="Y204">
+        <v>25</v>
+      </c>
+      <c r="Z204">
+        <v>26</v>
+      </c>
+      <c r="AA204">
+        <v>27</v>
+      </c>
+      <c r="AB204">
+        <v>28</v>
+      </c>
+      <c r="AC204">
+        <v>29</v>
+      </c>
+      <c r="AD204">
+        <v>30</v>
+      </c>
+      <c r="AE204">
+        <v>31</v>
+      </c>
+      <c r="AF204">
+        <v>32</v>
+      </c>
+      <c r="AG204">
+        <v>33</v>
+      </c>
+      <c r="AH204">
+        <v>34</v>
+      </c>
+      <c r="AI204">
+        <v>35</v>
+      </c>
+      <c r="AJ204">
+        <v>36</v>
+      </c>
+      <c r="AK204">
+        <v>37</v>
+      </c>
+      <c r="AL204">
+        <v>38</v>
+      </c>
+      <c r="AM204">
+        <v>39</v>
+      </c>
+      <c r="AN204">
+        <v>40</v>
+      </c>
+      <c r="AO204">
+        <v>41</v>
+      </c>
+      <c r="AP204">
+        <v>42</v>
+      </c>
+      <c r="AQ204">
+        <v>43</v>
+      </c>
+      <c r="AR204">
+        <v>44</v>
+      </c>
+      <c r="AS204">
+        <v>45</v>
+      </c>
+      <c r="AT204">
+        <v>46</v>
+      </c>
+      <c r="AU204">
+        <v>47</v>
+      </c>
+      <c r="AV204">
+        <v>48</v>
+      </c>
+      <c r="AW204">
+        <v>49</v>
+      </c>
+      <c r="AX204">
+        <v>50</v>
+      </c>
+      <c r="AY204">
+        <v>51</v>
+      </c>
+      <c r="AZ204">
+        <v>52</v>
+      </c>
+      <c r="BA204">
+        <v>53</v>
+      </c>
+      <c r="BB204">
+        <v>54</v>
+      </c>
+      <c r="BC204">
+        <v>55</v>
+      </c>
+      <c r="BD204">
+        <v>56</v>
+      </c>
+      <c r="BE204">
+        <v>57</v>
+      </c>
+      <c r="BF204">
+        <v>58</v>
+      </c>
+      <c r="BG204">
+        <v>59</v>
+      </c>
+      <c r="BH204">
+        <v>60</v>
+      </c>
+      <c r="BI204">
+        <v>61</v>
+      </c>
+      <c r="BJ204">
+        <v>62</v>
+      </c>
+      <c r="BK204">
+        <v>63</v>
+      </c>
+      <c r="BL204">
+        <v>64</v>
+      </c>
+      <c r="BM204">
+        <v>65</v>
+      </c>
+      <c r="BN204">
+        <v>66</v>
+      </c>
+      <c r="BO204">
         <v>67</v>
       </c>
-    </row>
-    <row r="203" spans="1:600" x14ac:dyDescent="0.55000000000000004">
-      <c r="A203">
-        <v>1</v>
-      </c>
-      <c r="B203">
-        <v>2</v>
-      </c>
-      <c r="C203">
-        <v>3</v>
-      </c>
-      <c r="D203">
-        <v>4</v>
-      </c>
-      <c r="E203">
-        <v>5</v>
-      </c>
-      <c r="F203">
-        <v>6</v>
-      </c>
-      <c r="G203">
-        <v>7</v>
-      </c>
-      <c r="H203">
-        <v>8</v>
-      </c>
-      <c r="I203">
-        <v>9</v>
-      </c>
-      <c r="J203">
-        <v>10</v>
-      </c>
-      <c r="K203">
-        <v>11</v>
-      </c>
-      <c r="L203">
-        <v>12</v>
-      </c>
-      <c r="M203">
-        <v>13</v>
-      </c>
-      <c r="N203">
-        <v>14</v>
-      </c>
-      <c r="O203">
-        <v>15</v>
-      </c>
-      <c r="P203">
-        <v>16</v>
-      </c>
-      <c r="Q203">
-        <v>17</v>
-      </c>
-      <c r="R203">
-        <v>18</v>
-      </c>
-      <c r="S203">
-        <v>19</v>
-      </c>
-      <c r="T203">
-        <v>20</v>
-      </c>
-      <c r="U203">
-        <v>21</v>
-      </c>
-      <c r="V203">
-        <v>22</v>
-      </c>
-      <c r="W203">
-        <v>23</v>
-      </c>
-      <c r="X203">
-        <v>24</v>
-      </c>
-      <c r="Y203">
-        <v>25</v>
-      </c>
-      <c r="Z203">
-        <v>26</v>
-      </c>
-      <c r="AA203">
-        <v>27</v>
-      </c>
-      <c r="AB203">
-        <v>28</v>
-      </c>
-      <c r="AC203">
-        <v>29</v>
-      </c>
-      <c r="AD203">
-        <v>30</v>
-      </c>
-      <c r="AE203">
-        <v>31</v>
-      </c>
-      <c r="AF203">
-        <v>32</v>
-      </c>
-      <c r="AG203">
-        <v>33</v>
-      </c>
-      <c r="AH203">
-        <v>34</v>
-      </c>
-      <c r="AI203">
-        <v>35</v>
-      </c>
-      <c r="AJ203">
-        <v>36</v>
-      </c>
-      <c r="AK203">
-        <v>37</v>
-      </c>
-      <c r="AL203">
-        <v>38</v>
-      </c>
-      <c r="AM203">
-        <v>39</v>
-      </c>
-      <c r="AN203">
-        <v>40</v>
-      </c>
-      <c r="AO203">
-        <v>41</v>
-      </c>
-      <c r="AP203">
-        <v>42</v>
-      </c>
-      <c r="AQ203">
-        <v>43</v>
-      </c>
-      <c r="AR203">
-        <v>44</v>
-      </c>
-      <c r="AS203">
-        <v>45</v>
-      </c>
-      <c r="AT203">
-        <v>46</v>
-      </c>
-      <c r="AU203">
-        <v>47</v>
-      </c>
-      <c r="AV203">
-        <v>48</v>
-      </c>
-      <c r="AW203">
-        <v>49</v>
-      </c>
-      <c r="AX203">
-        <v>50</v>
-      </c>
-      <c r="AY203">
-        <v>51</v>
-      </c>
-      <c r="AZ203">
-        <v>52</v>
-      </c>
-      <c r="BA203">
-        <v>53</v>
-      </c>
-      <c r="BB203">
-        <v>54</v>
-      </c>
-      <c r="BC203">
-        <v>55</v>
-      </c>
-      <c r="BD203">
-        <v>56</v>
-      </c>
-      <c r="BE203">
-        <v>57</v>
-      </c>
-      <c r="BF203">
-        <v>58</v>
-      </c>
-      <c r="BG203">
-        <v>59</v>
-      </c>
-      <c r="BH203">
-        <v>60</v>
-      </c>
-      <c r="BI203">
-        <v>61</v>
-      </c>
-      <c r="BJ203">
-        <v>62</v>
-      </c>
-      <c r="BK203">
-        <v>63</v>
-      </c>
-      <c r="BL203">
-        <v>64</v>
-      </c>
-      <c r="BM203">
-        <v>65</v>
-      </c>
-      <c r="BN203">
-        <v>66</v>
-      </c>
-      <c r="BO203">
+      <c r="BP204">
+        <v>68</v>
+      </c>
+      <c r="BQ204">
+        <v>69</v>
+      </c>
+      <c r="BR204">
+        <v>70</v>
+      </c>
+      <c r="BS204">
+        <v>71</v>
+      </c>
+      <c r="BT204">
+        <v>72</v>
+      </c>
+      <c r="BU204">
+        <v>73</v>
+      </c>
+      <c r="BV204">
+        <v>74</v>
+      </c>
+      <c r="BW204">
+        <v>75</v>
+      </c>
+      <c r="BX204">
+        <v>76</v>
+      </c>
+      <c r="BY204">
+        <v>77</v>
+      </c>
+      <c r="BZ204">
+        <v>78</v>
+      </c>
+      <c r="CA204">
+        <v>79</v>
+      </c>
+      <c r="CB204">
+        <v>80</v>
+      </c>
+      <c r="CC204">
+        <v>81</v>
+      </c>
+      <c r="CD204">
+        <v>82</v>
+      </c>
+      <c r="CE204">
+        <v>83</v>
+      </c>
+      <c r="CF204">
+        <v>84</v>
+      </c>
+      <c r="CG204">
+        <v>85</v>
+      </c>
+      <c r="CH204">
+        <v>86</v>
+      </c>
+      <c r="CI204">
+        <v>87</v>
+      </c>
+      <c r="CJ204">
+        <v>88</v>
+      </c>
+      <c r="CK204">
+        <v>89</v>
+      </c>
+      <c r="CL204">
+        <v>90</v>
+      </c>
+      <c r="CM204">
+        <v>91</v>
+      </c>
+      <c r="CN204">
+        <v>92</v>
+      </c>
+      <c r="CO204">
+        <v>93</v>
+      </c>
+      <c r="CP204">
+        <v>94</v>
+      </c>
+      <c r="CQ204">
+        <v>95</v>
+      </c>
+      <c r="CR204">
+        <v>96</v>
+      </c>
+      <c r="CS204">
+        <v>97</v>
+      </c>
+      <c r="CT204">
+        <v>98</v>
+      </c>
+      <c r="CU204">
+        <v>99</v>
+      </c>
+      <c r="CV204">
+        <v>100</v>
+      </c>
+      <c r="CW204">
+        <v>101</v>
+      </c>
+      <c r="CX204">
+        <v>102</v>
+      </c>
+      <c r="CY204">
+        <v>103</v>
+      </c>
+      <c r="CZ204">
+        <v>104</v>
+      </c>
+      <c r="DA204">
+        <v>105</v>
+      </c>
+      <c r="DB204">
+        <v>106</v>
+      </c>
+      <c r="DC204">
+        <v>107</v>
+      </c>
+      <c r="DD204">
+        <v>108</v>
+      </c>
+      <c r="DE204">
+        <v>109</v>
+      </c>
+      <c r="DF204">
+        <v>110</v>
+      </c>
+      <c r="DG204">
+        <v>111</v>
+      </c>
+      <c r="DH204">
+        <v>112</v>
+      </c>
+      <c r="DI204">
+        <v>113</v>
+      </c>
+      <c r="DJ204">
+        <v>114</v>
+      </c>
+      <c r="DK204">
+        <v>115</v>
+      </c>
+      <c r="DL204">
+        <v>116</v>
+      </c>
+      <c r="DM204">
+        <v>117</v>
+      </c>
+      <c r="DN204">
+        <v>118</v>
+      </c>
+      <c r="DO204">
+        <v>119</v>
+      </c>
+      <c r="DP204">
+        <v>120</v>
+      </c>
+      <c r="DQ204">
+        <v>121</v>
+      </c>
+      <c r="DR204">
+        <v>122</v>
+      </c>
+      <c r="DS204">
+        <v>123</v>
+      </c>
+      <c r="DT204">
+        <v>124</v>
+      </c>
+      <c r="DU204">
+        <v>125</v>
+      </c>
+      <c r="DV204">
+        <v>126</v>
+      </c>
+      <c r="DW204">
+        <v>127</v>
+      </c>
+      <c r="DX204">
+        <v>128</v>
+      </c>
+      <c r="DY204">
+        <v>129</v>
+      </c>
+      <c r="DZ204">
+        <v>130</v>
+      </c>
+      <c r="EA204">
+        <v>131</v>
+      </c>
+      <c r="EB204">
+        <v>132</v>
+      </c>
+      <c r="EC204">
+        <v>133</v>
+      </c>
+      <c r="ED204">
+        <v>134</v>
+      </c>
+      <c r="EE204">
+        <v>135</v>
+      </c>
+      <c r="EF204">
+        <v>136</v>
+      </c>
+      <c r="EG204">
+        <v>137</v>
+      </c>
+      <c r="EH204">
+        <v>138</v>
+      </c>
+      <c r="EI204">
+        <v>139</v>
+      </c>
+      <c r="EJ204">
+        <v>140</v>
+      </c>
+      <c r="EK204">
+        <v>141</v>
+      </c>
+      <c r="EL204">
+        <v>142</v>
+      </c>
+      <c r="EM204">
+        <v>143</v>
+      </c>
+      <c r="EN204">
+        <v>144</v>
+      </c>
+      <c r="EO204">
+        <v>145</v>
+      </c>
+      <c r="EP204">
+        <v>146</v>
+      </c>
+      <c r="EQ204">
+        <v>147</v>
+      </c>
+      <c r="ER204">
+        <v>148</v>
+      </c>
+      <c r="ES204">
+        <v>149</v>
+      </c>
+      <c r="ET204">
+        <v>150</v>
+      </c>
+      <c r="EU204">
+        <v>151</v>
+      </c>
+      <c r="EV204">
+        <v>152</v>
+      </c>
+      <c r="EW204">
+        <v>153</v>
+      </c>
+      <c r="EX204">
+        <v>154</v>
+      </c>
+      <c r="EY204">
+        <v>155</v>
+      </c>
+      <c r="EZ204">
+        <v>156</v>
+      </c>
+      <c r="FA204">
+        <v>157</v>
+      </c>
+      <c r="FB204">
+        <v>158</v>
+      </c>
+      <c r="FC204">
+        <v>159</v>
+      </c>
+      <c r="FD204">
+        <v>160</v>
+      </c>
+      <c r="FE204">
+        <v>161</v>
+      </c>
+      <c r="FF204">
+        <v>162</v>
+      </c>
+      <c r="FG204">
+        <v>163</v>
+      </c>
+      <c r="FH204">
+        <v>164</v>
+      </c>
+      <c r="FI204">
+        <v>165</v>
+      </c>
+      <c r="FJ204">
+        <v>166</v>
+      </c>
+      <c r="FK204">
+        <v>167</v>
+      </c>
+      <c r="FL204">
+        <v>168</v>
+      </c>
+      <c r="FM204">
+        <v>169</v>
+      </c>
+      <c r="FN204">
+        <v>170</v>
+      </c>
+      <c r="FO204">
+        <v>171</v>
+      </c>
+      <c r="FP204">
+        <v>172</v>
+      </c>
+      <c r="FQ204">
+        <v>173</v>
+      </c>
+      <c r="FR204">
+        <v>174</v>
+      </c>
+      <c r="FS204">
+        <v>175</v>
+      </c>
+      <c r="FT204">
+        <v>176</v>
+      </c>
+      <c r="FU204">
+        <v>177</v>
+      </c>
+      <c r="FV204">
+        <v>178</v>
+      </c>
+      <c r="FW204">
+        <v>179</v>
+      </c>
+      <c r="FX204">
+        <v>180</v>
+      </c>
+      <c r="FY204">
+        <v>181</v>
+      </c>
+      <c r="FZ204">
+        <v>182</v>
+      </c>
+      <c r="GA204">
+        <v>183</v>
+      </c>
+      <c r="GB204">
+        <v>184</v>
+      </c>
+      <c r="GC204">
+        <v>185</v>
+      </c>
+      <c r="GD204">
+        <v>186</v>
+      </c>
+      <c r="GE204">
+        <v>187</v>
+      </c>
+      <c r="GF204">
+        <v>188</v>
+      </c>
+      <c r="GG204">
+        <v>189</v>
+      </c>
+      <c r="GH204">
+        <v>190</v>
+      </c>
+      <c r="GI204">
+        <v>191</v>
+      </c>
+      <c r="GJ204">
+        <v>192</v>
+      </c>
+      <c r="GK204">
+        <v>193</v>
+      </c>
+      <c r="GL204">
+        <v>194</v>
+      </c>
+      <c r="GM204">
+        <v>195</v>
+      </c>
+      <c r="GN204">
+        <v>196</v>
+      </c>
+      <c r="GO204">
+        <v>197</v>
+      </c>
+      <c r="GP204">
+        <v>198</v>
+      </c>
+      <c r="GQ204">
+        <v>199</v>
+      </c>
+      <c r="GR204">
+        <v>200</v>
+      </c>
+      <c r="GS204">
+        <v>201</v>
+      </c>
+      <c r="GT204">
+        <v>202</v>
+      </c>
+      <c r="GU204">
+        <v>203</v>
+      </c>
+      <c r="GV204">
+        <v>204</v>
+      </c>
+      <c r="GW204">
+        <v>205</v>
+      </c>
+      <c r="GX204">
+        <v>206</v>
+      </c>
+      <c r="GY204">
+        <v>207</v>
+      </c>
+      <c r="GZ204">
+        <v>208</v>
+      </c>
+      <c r="HA204">
+        <v>209</v>
+      </c>
+      <c r="HB204">
+        <v>210</v>
+      </c>
+      <c r="HC204">
+        <v>211</v>
+      </c>
+      <c r="HD204">
+        <v>212</v>
+      </c>
+      <c r="HE204">
+        <v>213</v>
+      </c>
+      <c r="HF204">
+        <v>214</v>
+      </c>
+      <c r="HG204">
+        <v>215</v>
+      </c>
+      <c r="HH204">
+        <v>216</v>
+      </c>
+      <c r="HI204">
+        <v>217</v>
+      </c>
+      <c r="HJ204">
+        <v>218</v>
+      </c>
+      <c r="HK204">
+        <v>219</v>
+      </c>
+      <c r="HL204">
+        <v>220</v>
+      </c>
+      <c r="HM204">
+        <v>221</v>
+      </c>
+      <c r="HN204">
+        <v>222</v>
+      </c>
+      <c r="HO204">
+        <v>223</v>
+      </c>
+      <c r="HP204">
+        <v>224</v>
+      </c>
+      <c r="HQ204">
+        <v>225</v>
+      </c>
+      <c r="HR204">
+        <v>226</v>
+      </c>
+      <c r="HS204">
+        <v>227</v>
+      </c>
+      <c r="HT204">
+        <v>228</v>
+      </c>
+      <c r="HU204">
+        <v>229</v>
+      </c>
+      <c r="HV204">
+        <v>230</v>
+      </c>
+      <c r="HW204">
+        <v>231</v>
+      </c>
+      <c r="HX204">
+        <v>232</v>
+      </c>
+      <c r="HY204">
+        <v>233</v>
+      </c>
+      <c r="HZ204">
+        <v>234</v>
+      </c>
+      <c r="IA204">
+        <v>235</v>
+      </c>
+      <c r="IB204">
+        <v>236</v>
+      </c>
+      <c r="IC204">
+        <v>237</v>
+      </c>
+      <c r="ID204">
+        <v>238</v>
+      </c>
+      <c r="IE204">
+        <v>239</v>
+      </c>
+      <c r="IF204">
+        <v>240</v>
+      </c>
+      <c r="IG204">
+        <v>241</v>
+      </c>
+      <c r="IH204">
+        <v>242</v>
+      </c>
+      <c r="II204">
+        <v>243</v>
+      </c>
+      <c r="IJ204">
+        <v>244</v>
+      </c>
+      <c r="IK204">
+        <v>245</v>
+      </c>
+      <c r="IL204">
+        <v>246</v>
+      </c>
+      <c r="IM204">
+        <v>247</v>
+      </c>
+      <c r="IN204">
+        <v>248</v>
+      </c>
+      <c r="IO204">
+        <v>249</v>
+      </c>
+      <c r="IP204">
+        <v>250</v>
+      </c>
+      <c r="IQ204">
+        <v>251</v>
+      </c>
+      <c r="IR204">
+        <v>252</v>
+      </c>
+      <c r="IS204">
+        <v>253</v>
+      </c>
+      <c r="IT204">
+        <v>254</v>
+      </c>
+      <c r="IU204">
+        <v>255</v>
+      </c>
+      <c r="IV204">
+        <v>256</v>
+      </c>
+      <c r="IW204">
+        <v>257</v>
+      </c>
+      <c r="IX204">
+        <v>258</v>
+      </c>
+      <c r="IY204">
+        <v>259</v>
+      </c>
+      <c r="IZ204">
+        <v>260</v>
+      </c>
+      <c r="JA204">
+        <v>261</v>
+      </c>
+      <c r="JB204">
+        <v>262</v>
+      </c>
+      <c r="JC204">
+        <v>263</v>
+      </c>
+      <c r="JD204">
+        <v>264</v>
+      </c>
+      <c r="JE204">
+        <v>265</v>
+      </c>
+      <c r="JF204">
+        <v>266</v>
+      </c>
+      <c r="JG204">
+        <v>267</v>
+      </c>
+      <c r="JH204">
+        <v>268</v>
+      </c>
+      <c r="JI204">
+        <v>269</v>
+      </c>
+      <c r="JJ204">
+        <v>270</v>
+      </c>
+      <c r="JK204">
+        <v>271</v>
+      </c>
+      <c r="JL204">
+        <v>272</v>
+      </c>
+      <c r="JM204">
+        <v>273</v>
+      </c>
+      <c r="JN204">
+        <v>274</v>
+      </c>
+      <c r="JO204">
+        <v>275</v>
+      </c>
+      <c r="JP204">
+        <v>276</v>
+      </c>
+      <c r="JQ204">
+        <v>277</v>
+      </c>
+      <c r="JR204">
+        <v>278</v>
+      </c>
+      <c r="JS204">
+        <v>279</v>
+      </c>
+      <c r="JT204">
+        <v>280</v>
+      </c>
+      <c r="JU204">
+        <v>281</v>
+      </c>
+      <c r="JV204">
+        <v>282</v>
+      </c>
+      <c r="JW204">
+        <v>283</v>
+      </c>
+      <c r="JX204">
+        <v>284</v>
+      </c>
+      <c r="JY204">
+        <v>285</v>
+      </c>
+      <c r="JZ204">
+        <v>286</v>
+      </c>
+      <c r="KA204">
+        <v>287</v>
+      </c>
+      <c r="KB204">
+        <v>288</v>
+      </c>
+      <c r="KC204">
+        <v>289</v>
+      </c>
+      <c r="KD204">
+        <v>290</v>
+      </c>
+      <c r="KE204">
+        <v>291</v>
+      </c>
+      <c r="KF204">
+        <v>292</v>
+      </c>
+      <c r="KG204">
+        <v>293</v>
+      </c>
+      <c r="KH204">
+        <v>294</v>
+      </c>
+      <c r="KI204">
+        <v>295</v>
+      </c>
+      <c r="KJ204">
+        <v>296</v>
+      </c>
+      <c r="KK204">
+        <v>297</v>
+      </c>
+      <c r="KL204">
+        <v>298</v>
+      </c>
+      <c r="KM204">
+        <v>299</v>
+      </c>
+      <c r="KN204">
+        <v>300</v>
+      </c>
+      <c r="KO204">
+        <v>301</v>
+      </c>
+      <c r="KP204">
+        <v>302</v>
+      </c>
+      <c r="KQ204">
+        <v>303</v>
+      </c>
+      <c r="KR204">
+        <v>304</v>
+      </c>
+      <c r="KS204">
+        <v>305</v>
+      </c>
+      <c r="KT204">
+        <v>306</v>
+      </c>
+      <c r="KU204">
+        <v>307</v>
+      </c>
+      <c r="KV204">
+        <v>308</v>
+      </c>
+      <c r="KW204">
+        <v>309</v>
+      </c>
+      <c r="KX204">
+        <v>310</v>
+      </c>
+      <c r="KY204">
+        <v>311</v>
+      </c>
+      <c r="KZ204">
+        <v>312</v>
+      </c>
+      <c r="LA204">
+        <v>313</v>
+      </c>
+      <c r="LB204">
+        <v>314</v>
+      </c>
+      <c r="LC204">
+        <v>315</v>
+      </c>
+      <c r="LD204">
+        <v>316</v>
+      </c>
+      <c r="LE204">
+        <v>317</v>
+      </c>
+      <c r="LF204">
+        <v>318</v>
+      </c>
+      <c r="LG204">
+        <v>319</v>
+      </c>
+      <c r="LH204">
+        <v>320</v>
+      </c>
+      <c r="LI204">
+        <v>321</v>
+      </c>
+      <c r="LJ204">
+        <v>322</v>
+      </c>
+      <c r="LK204">
+        <v>323</v>
+      </c>
+      <c r="LL204">
+        <v>324</v>
+      </c>
+      <c r="LM204">
+        <v>325</v>
+      </c>
+      <c r="LN204">
+        <v>326</v>
+      </c>
+      <c r="LO204">
+        <v>327</v>
+      </c>
+      <c r="LP204">
+        <v>328</v>
+      </c>
+      <c r="LQ204">
+        <v>329</v>
+      </c>
+      <c r="LR204">
+        <v>330</v>
+      </c>
+      <c r="LS204">
+        <v>331</v>
+      </c>
+      <c r="LT204">
+        <v>332</v>
+      </c>
+      <c r="LU204">
+        <v>333</v>
+      </c>
+      <c r="LV204">
+        <v>334</v>
+      </c>
+      <c r="LW204">
+        <v>335</v>
+      </c>
+      <c r="LX204">
+        <v>336</v>
+      </c>
+      <c r="LY204">
+        <v>337</v>
+      </c>
+      <c r="LZ204">
+        <v>338</v>
+      </c>
+      <c r="MA204">
+        <v>339</v>
+      </c>
+      <c r="MB204">
+        <v>340</v>
+      </c>
+      <c r="MC204">
+        <v>341</v>
+      </c>
+      <c r="MD204">
+        <v>342</v>
+      </c>
+      <c r="ME204">
+        <v>343</v>
+      </c>
+      <c r="MF204">
+        <v>344</v>
+      </c>
+      <c r="MG204">
+        <v>345</v>
+      </c>
+      <c r="MH204">
+        <v>346</v>
+      </c>
+      <c r="MI204">
+        <v>347</v>
+      </c>
+      <c r="MJ204">
+        <v>348</v>
+      </c>
+      <c r="MK204">
+        <v>349</v>
+      </c>
+      <c r="ML204">
+        <v>350</v>
+      </c>
+      <c r="MM204">
+        <v>351</v>
+      </c>
+      <c r="MN204">
+        <v>352</v>
+      </c>
+      <c r="MO204">
+        <v>353</v>
+      </c>
+      <c r="MP204">
+        <v>354</v>
+      </c>
+      <c r="MQ204">
+        <v>355</v>
+      </c>
+      <c r="MR204">
+        <v>356</v>
+      </c>
+      <c r="MS204">
+        <v>357</v>
+      </c>
+      <c r="MT204">
+        <v>358</v>
+      </c>
+      <c r="MU204">
+        <v>359</v>
+      </c>
+      <c r="MV204">
+        <v>360</v>
+      </c>
+      <c r="MW204">
+        <v>361</v>
+      </c>
+      <c r="MX204">
+        <v>362</v>
+      </c>
+      <c r="MY204">
+        <v>363</v>
+      </c>
+      <c r="MZ204">
+        <v>364</v>
+      </c>
+      <c r="NA204">
+        <v>365</v>
+      </c>
+      <c r="NB204">
+        <v>366</v>
+      </c>
+      <c r="NC204">
+        <v>367</v>
+      </c>
+      <c r="ND204">
+        <v>368</v>
+      </c>
+      <c r="NE204">
+        <v>369</v>
+      </c>
+      <c r="NF204">
+        <v>370</v>
+      </c>
+      <c r="NG204">
+        <v>371</v>
+      </c>
+      <c r="NH204">
+        <v>372</v>
+      </c>
+      <c r="NI204">
+        <v>373</v>
+      </c>
+      <c r="NJ204">
+        <v>374</v>
+      </c>
+      <c r="NK204">
+        <v>375</v>
+      </c>
+      <c r="NL204">
+        <v>376</v>
+      </c>
+      <c r="NM204">
+        <v>377</v>
+      </c>
+      <c r="NN204">
+        <v>378</v>
+      </c>
+      <c r="NO204">
+        <v>379</v>
+      </c>
+      <c r="NP204">
+        <v>380</v>
+      </c>
+      <c r="NQ204">
+        <v>381</v>
+      </c>
+      <c r="NR204">
+        <v>382</v>
+      </c>
+      <c r="NS204">
+        <v>383</v>
+      </c>
+      <c r="NT204">
+        <v>384</v>
+      </c>
+      <c r="NU204">
+        <v>385</v>
+      </c>
+      <c r="NV204">
+        <v>386</v>
+      </c>
+      <c r="NW204">
+        <v>387</v>
+      </c>
+      <c r="NX204">
+        <v>388</v>
+      </c>
+      <c r="NY204">
+        <v>389</v>
+      </c>
+      <c r="NZ204">
+        <v>390</v>
+      </c>
+      <c r="OA204">
+        <v>391</v>
+      </c>
+      <c r="OB204">
+        <v>392</v>
+      </c>
+      <c r="OC204">
+        <v>393</v>
+      </c>
+      <c r="OD204">
+        <v>394</v>
+      </c>
+      <c r="OE204">
+        <v>395</v>
+      </c>
+      <c r="OF204">
+        <v>396</v>
+      </c>
+      <c r="OG204">
+        <v>397</v>
+      </c>
+      <c r="OH204">
+        <v>398</v>
+      </c>
+      <c r="OI204">
+        <v>399</v>
+      </c>
+      <c r="OJ204">
+        <v>400</v>
+      </c>
+      <c r="OK204">
+        <v>401</v>
+      </c>
+      <c r="OL204">
+        <v>402</v>
+      </c>
+      <c r="OM204">
+        <v>403</v>
+      </c>
+      <c r="ON204">
+        <v>404</v>
+      </c>
+      <c r="OO204">
+        <v>405</v>
+      </c>
+      <c r="OP204">
+        <v>406</v>
+      </c>
+      <c r="OQ204">
+        <v>407</v>
+      </c>
+      <c r="OR204">
+        <v>408</v>
+      </c>
+      <c r="OS204">
+        <v>409</v>
+      </c>
+      <c r="OT204">
+        <v>410</v>
+      </c>
+      <c r="OU204">
+        <v>411</v>
+      </c>
+      <c r="OV204">
+        <v>412</v>
+      </c>
+      <c r="OW204">
+        <v>413</v>
+      </c>
+      <c r="OX204">
+        <v>414</v>
+      </c>
+      <c r="OY204">
+        <v>415</v>
+      </c>
+      <c r="OZ204">
+        <v>416</v>
+      </c>
+      <c r="PA204">
+        <v>417</v>
+      </c>
+      <c r="PB204">
+        <v>418</v>
+      </c>
+      <c r="PC204">
+        <v>419</v>
+      </c>
+      <c r="PD204">
+        <v>420</v>
+      </c>
+      <c r="PE204">
+        <v>421</v>
+      </c>
+      <c r="PF204">
+        <v>422</v>
+      </c>
+      <c r="PG204">
+        <v>423</v>
+      </c>
+      <c r="PH204">
+        <v>424</v>
+      </c>
+      <c r="PI204">
+        <v>425</v>
+      </c>
+      <c r="PJ204">
+        <v>426</v>
+      </c>
+      <c r="PK204">
+        <v>427</v>
+      </c>
+      <c r="PL204">
+        <v>428</v>
+      </c>
+      <c r="PM204">
+        <v>429</v>
+      </c>
+      <c r="PN204">
+        <v>430</v>
+      </c>
+      <c r="PO204">
+        <v>431</v>
+      </c>
+      <c r="PP204">
+        <v>432</v>
+      </c>
+      <c r="PQ204">
+        <v>433</v>
+      </c>
+      <c r="PR204">
+        <v>434</v>
+      </c>
+      <c r="PS204">
+        <v>435</v>
+      </c>
+      <c r="PT204">
+        <v>436</v>
+      </c>
+      <c r="PU204">
+        <v>437</v>
+      </c>
+      <c r="PV204">
+        <v>438</v>
+      </c>
+      <c r="PW204">
+        <v>439</v>
+      </c>
+      <c r="PX204">
+        <v>440</v>
+      </c>
+      <c r="PY204">
+        <v>441</v>
+      </c>
+      <c r="PZ204">
+        <v>442</v>
+      </c>
+      <c r="QA204">
+        <v>443</v>
+      </c>
+      <c r="QB204">
+        <v>444</v>
+      </c>
+      <c r="QC204">
+        <v>445</v>
+      </c>
+      <c r="QD204">
+        <v>446</v>
+      </c>
+      <c r="QE204">
+        <v>447</v>
+      </c>
+      <c r="QF204">
+        <v>448</v>
+      </c>
+      <c r="QG204">
+        <v>449</v>
+      </c>
+      <c r="QH204">
+        <v>450</v>
+      </c>
+      <c r="QI204">
+        <v>451</v>
+      </c>
+      <c r="QJ204">
+        <v>452</v>
+      </c>
+      <c r="QK204">
+        <v>453</v>
+      </c>
+      <c r="QL204">
+        <v>454</v>
+      </c>
+      <c r="QM204">
+        <v>455</v>
+      </c>
+      <c r="QN204">
+        <v>456</v>
+      </c>
+      <c r="QO204">
+        <v>457</v>
+      </c>
+      <c r="QP204">
+        <v>458</v>
+      </c>
+      <c r="QQ204">
+        <v>459</v>
+      </c>
+      <c r="QR204">
+        <v>460</v>
+      </c>
+      <c r="QS204">
+        <v>461</v>
+      </c>
+      <c r="QT204">
+        <v>462</v>
+      </c>
+      <c r="QU204">
+        <v>463</v>
+      </c>
+      <c r="QV204">
+        <v>464</v>
+      </c>
+      <c r="QW204">
+        <v>465</v>
+      </c>
+      <c r="QX204">
+        <v>466</v>
+      </c>
+      <c r="QY204">
+        <v>467</v>
+      </c>
+      <c r="QZ204">
+        <v>468</v>
+      </c>
+      <c r="RA204">
+        <v>469</v>
+      </c>
+      <c r="RB204">
+        <v>470</v>
+      </c>
+      <c r="RC204">
+        <v>471</v>
+      </c>
+      <c r="RD204">
+        <v>472</v>
+      </c>
+      <c r="RE204">
+        <v>473</v>
+      </c>
+      <c r="RF204">
+        <v>474</v>
+      </c>
+      <c r="RG204">
+        <v>475</v>
+      </c>
+      <c r="RH204">
+        <v>476</v>
+      </c>
+      <c r="RI204">
+        <v>477</v>
+      </c>
+      <c r="RJ204">
+        <v>478</v>
+      </c>
+      <c r="RK204">
+        <v>479</v>
+      </c>
+      <c r="RL204">
+        <v>480</v>
+      </c>
+      <c r="RM204">
+        <v>481</v>
+      </c>
+      <c r="RN204">
+        <v>482</v>
+      </c>
+      <c r="RO204">
+        <v>483</v>
+      </c>
+      <c r="RP204">
+        <v>484</v>
+      </c>
+      <c r="RQ204">
+        <v>485</v>
+      </c>
+      <c r="RR204">
+        <v>486</v>
+      </c>
+      <c r="RS204">
+        <v>487</v>
+      </c>
+      <c r="RT204">
+        <v>488</v>
+      </c>
+      <c r="RU204">
+        <v>489</v>
+      </c>
+      <c r="RV204">
+        <v>490</v>
+      </c>
+      <c r="RW204">
+        <v>491</v>
+      </c>
+      <c r="RX204">
+        <v>492</v>
+      </c>
+      <c r="RY204">
+        <v>493</v>
+      </c>
+      <c r="RZ204">
+        <v>494</v>
+      </c>
+      <c r="SA204">
+        <v>495</v>
+      </c>
+      <c r="SB204">
+        <v>496</v>
+      </c>
+      <c r="SC204">
+        <v>497</v>
+      </c>
+      <c r="SD204">
+        <v>498</v>
+      </c>
+      <c r="SE204">
+        <v>499</v>
+      </c>
+      <c r="SF204">
+        <v>500</v>
+      </c>
+      <c r="SG204">
+        <v>501</v>
+      </c>
+      <c r="SH204">
+        <v>502</v>
+      </c>
+      <c r="SI204">
+        <v>503</v>
+      </c>
+      <c r="SJ204">
+        <v>504</v>
+      </c>
+      <c r="SK204">
+        <v>505</v>
+      </c>
+      <c r="SL204">
+        <v>506</v>
+      </c>
+      <c r="SM204">
+        <v>507</v>
+      </c>
+      <c r="SN204">
+        <v>508</v>
+      </c>
+      <c r="SO204">
+        <v>509</v>
+      </c>
+      <c r="SP204">
+        <v>510</v>
+      </c>
+      <c r="SQ204">
+        <v>511</v>
+      </c>
+      <c r="SR204">
+        <v>512</v>
+      </c>
+      <c r="SS204">
+        <v>513</v>
+      </c>
+      <c r="ST204">
+        <v>514</v>
+      </c>
+      <c r="SU204">
+        <v>515</v>
+      </c>
+      <c r="SV204">
+        <v>516</v>
+      </c>
+      <c r="SW204">
+        <v>517</v>
+      </c>
+      <c r="SX204">
+        <v>518</v>
+      </c>
+      <c r="SY204">
+        <v>519</v>
+      </c>
+      <c r="SZ204">
+        <v>520</v>
+      </c>
+      <c r="TA204">
+        <v>521</v>
+      </c>
+      <c r="TB204">
+        <v>522</v>
+      </c>
+      <c r="TC204">
+        <v>523</v>
+      </c>
+      <c r="TD204">
+        <v>524</v>
+      </c>
+      <c r="TE204">
+        <v>525</v>
+      </c>
+      <c r="TF204">
+        <v>526</v>
+      </c>
+      <c r="TG204">
+        <v>527</v>
+      </c>
+      <c r="TH204">
+        <v>528</v>
+      </c>
+      <c r="TI204">
+        <v>529</v>
+      </c>
+      <c r="TJ204">
+        <v>530</v>
+      </c>
+      <c r="TK204">
+        <v>531</v>
+      </c>
+      <c r="TL204">
+        <v>532</v>
+      </c>
+      <c r="TM204">
+        <v>533</v>
+      </c>
+      <c r="TN204">
+        <v>534</v>
+      </c>
+      <c r="TO204">
+        <v>535</v>
+      </c>
+      <c r="TP204">
+        <v>536</v>
+      </c>
+      <c r="TQ204">
+        <v>537</v>
+      </c>
+      <c r="TR204">
+        <v>538</v>
+      </c>
+      <c r="TS204">
+        <v>539</v>
+      </c>
+      <c r="TT204">
+        <v>540</v>
+      </c>
+      <c r="TU204">
+        <v>541</v>
+      </c>
+      <c r="TV204">
+        <v>542</v>
+      </c>
+      <c r="TW204">
+        <v>543</v>
+      </c>
+      <c r="TX204">
+        <v>544</v>
+      </c>
+      <c r="TY204">
+        <v>545</v>
+      </c>
+      <c r="TZ204">
+        <v>546</v>
+      </c>
+      <c r="UA204">
+        <v>547</v>
+      </c>
+      <c r="UB204">
+        <v>548</v>
+      </c>
+      <c r="UC204">
+        <v>549</v>
+      </c>
+      <c r="UD204">
+        <v>550</v>
+      </c>
+      <c r="UE204">
+        <v>551</v>
+      </c>
+      <c r="UF204">
+        <v>552</v>
+      </c>
+      <c r="UG204">
+        <v>553</v>
+      </c>
+      <c r="UH204">
+        <v>554</v>
+      </c>
+      <c r="UI204">
+        <v>555</v>
+      </c>
+      <c r="UJ204">
+        <v>556</v>
+      </c>
+      <c r="UK204">
+        <v>557</v>
+      </c>
+      <c r="UL204">
+        <v>558</v>
+      </c>
+      <c r="UM204">
+        <v>559</v>
+      </c>
+      <c r="UN204">
+        <v>560</v>
+      </c>
+      <c r="UO204">
+        <v>561</v>
+      </c>
+      <c r="UP204">
+        <v>562</v>
+      </c>
+      <c r="UQ204">
+        <v>563</v>
+      </c>
+      <c r="UR204">
+        <v>564</v>
+      </c>
+      <c r="US204">
+        <v>565</v>
+      </c>
+      <c r="UT204">
+        <v>566</v>
+      </c>
+      <c r="UU204">
+        <v>567</v>
+      </c>
+      <c r="UV204">
+        <v>568</v>
+      </c>
+      <c r="UW204">
+        <v>569</v>
+      </c>
+      <c r="UX204">
+        <v>570</v>
+      </c>
+      <c r="UY204">
+        <v>571</v>
+      </c>
+      <c r="UZ204">
+        <v>572</v>
+      </c>
+      <c r="VA204">
+        <v>573</v>
+      </c>
+      <c r="VB204">
+        <v>574</v>
+      </c>
+      <c r="VC204">
+        <v>575</v>
+      </c>
+      <c r="VD204">
+        <v>576</v>
+      </c>
+      <c r="VE204">
+        <v>577</v>
+      </c>
+      <c r="VF204">
+        <v>578</v>
+      </c>
+      <c r="VG204">
+        <v>579</v>
+      </c>
+      <c r="VH204">
+        <v>580</v>
+      </c>
+      <c r="VI204">
+        <v>581</v>
+      </c>
+      <c r="VJ204">
+        <v>582</v>
+      </c>
+      <c r="VK204">
+        <v>583</v>
+      </c>
+      <c r="VL204">
+        <v>584</v>
+      </c>
+      <c r="VM204">
+        <v>585</v>
+      </c>
+      <c r="VN204">
+        <v>586</v>
+      </c>
+      <c r="VO204">
+        <v>587</v>
+      </c>
+      <c r="VP204">
+        <v>588</v>
+      </c>
+      <c r="VQ204">
+        <v>589</v>
+      </c>
+      <c r="VR204">
+        <v>590</v>
+      </c>
+      <c r="VS204">
+        <v>591</v>
+      </c>
+      <c r="VT204">
+        <v>592</v>
+      </c>
+      <c r="VU204">
+        <v>593</v>
+      </c>
+      <c r="VV204">
+        <v>594</v>
+      </c>
+      <c r="VW204">
+        <v>595</v>
+      </c>
+      <c r="VX204">
+        <v>596</v>
+      </c>
+      <c r="VY204">
+        <v>597</v>
+      </c>
+      <c r="VZ204">
+        <v>598</v>
+      </c>
+      <c r="WA204">
+        <v>599</v>
+      </c>
+      <c r="WB204">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="205" spans="1:600" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="206" spans="1:600" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="BP203">
-        <v>68</v>
-      </c>
-      <c r="BQ203">
-        <v>69</v>
-      </c>
-      <c r="BR203">
-        <v>70</v>
-      </c>
-      <c r="BS203">
-        <v>71</v>
-      </c>
-      <c r="BT203">
-        <v>72</v>
-      </c>
-      <c r="BU203">
-        <v>73</v>
-      </c>
-      <c r="BV203">
-        <v>74</v>
-      </c>
-      <c r="BW203">
-        <v>75</v>
-      </c>
-      <c r="BX203">
-        <v>76</v>
-      </c>
-      <c r="BY203">
-        <v>77</v>
-      </c>
-      <c r="BZ203">
-        <v>78</v>
-      </c>
-      <c r="CA203">
-        <v>79</v>
-      </c>
-      <c r="CB203">
-        <v>80</v>
-      </c>
-      <c r="CC203">
-        <v>81</v>
-      </c>
-      <c r="CD203">
-        <v>82</v>
-      </c>
-      <c r="CE203">
-        <v>83</v>
-      </c>
-      <c r="CF203">
-        <v>84</v>
-      </c>
-      <c r="CG203">
-        <v>85</v>
-      </c>
-      <c r="CH203">
-        <v>86</v>
-      </c>
-      <c r="CI203">
-        <v>87</v>
-      </c>
-      <c r="CJ203">
-        <v>88</v>
-      </c>
-      <c r="CK203">
-        <v>89</v>
-      </c>
-      <c r="CL203">
-        <v>90</v>
-      </c>
-      <c r="CM203">
-        <v>91</v>
-      </c>
-      <c r="CN203">
-        <v>92</v>
-      </c>
-      <c r="CO203">
-        <v>93</v>
-      </c>
-      <c r="CP203">
-        <v>94</v>
-      </c>
-      <c r="CQ203">
-        <v>95</v>
-      </c>
-      <c r="CR203">
-        <v>96</v>
-      </c>
-      <c r="CS203">
-        <v>97</v>
-      </c>
-      <c r="CT203">
-        <v>98</v>
-      </c>
-      <c r="CU203">
-        <v>99</v>
-      </c>
-      <c r="CV203">
-        <v>100</v>
-      </c>
-      <c r="CW203">
-        <v>101</v>
-      </c>
-      <c r="CX203">
-        <v>102</v>
-      </c>
-      <c r="CY203">
-        <v>103</v>
-      </c>
-      <c r="CZ203">
-        <v>104</v>
-      </c>
-      <c r="DA203">
-        <v>105</v>
-      </c>
-      <c r="DB203">
-        <v>106</v>
-      </c>
-      <c r="DC203">
-        <v>107</v>
-      </c>
-      <c r="DD203">
-        <v>108</v>
-      </c>
-      <c r="DE203">
-        <v>109</v>
-      </c>
-      <c r="DF203">
-        <v>110</v>
-      </c>
-      <c r="DG203">
-        <v>111</v>
-      </c>
-      <c r="DH203">
-        <v>112</v>
-      </c>
-      <c r="DI203">
-        <v>113</v>
-      </c>
-      <c r="DJ203">
-        <v>114</v>
-      </c>
-      <c r="DK203">
-        <v>115</v>
-      </c>
-      <c r="DL203">
-        <v>116</v>
-      </c>
-      <c r="DM203">
-        <v>117</v>
-      </c>
-      <c r="DN203">
-        <v>118</v>
-      </c>
-      <c r="DO203">
-        <v>119</v>
-      </c>
-      <c r="DP203">
-        <v>120</v>
-      </c>
-      <c r="DQ203">
-        <v>121</v>
-      </c>
-      <c r="DR203">
-        <v>122</v>
-      </c>
-      <c r="DS203">
-        <v>123</v>
-      </c>
-      <c r="DT203">
-        <v>124</v>
-      </c>
-      <c r="DU203">
-        <v>125</v>
-      </c>
-      <c r="DV203">
-        <v>126</v>
-      </c>
-      <c r="DW203">
-        <v>127</v>
-      </c>
-      <c r="DX203">
-        <v>128</v>
-      </c>
-      <c r="DY203">
-        <v>129</v>
-      </c>
-      <c r="DZ203">
-        <v>130</v>
-      </c>
-      <c r="EA203">
-        <v>131</v>
-      </c>
-      <c r="EB203">
-        <v>132</v>
-      </c>
-      <c r="EC203">
-        <v>133</v>
-      </c>
-      <c r="ED203">
-        <v>134</v>
-      </c>
-      <c r="EE203">
-        <v>135</v>
-      </c>
-      <c r="EF203">
-        <v>136</v>
-      </c>
-      <c r="EG203">
-        <v>137</v>
-      </c>
-      <c r="EH203">
-        <v>138</v>
-      </c>
-      <c r="EI203">
-        <v>139</v>
-      </c>
-      <c r="EJ203">
-        <v>140</v>
-      </c>
-      <c r="EK203">
-        <v>141</v>
-      </c>
-      <c r="EL203">
-        <v>142</v>
-      </c>
-      <c r="EM203">
-        <v>143</v>
-      </c>
-      <c r="EN203">
-        <v>144</v>
-      </c>
-      <c r="EO203">
-        <v>145</v>
-      </c>
-      <c r="EP203">
-        <v>146</v>
-      </c>
-      <c r="EQ203">
-        <v>147</v>
-      </c>
-      <c r="ER203">
-        <v>148</v>
-      </c>
-      <c r="ES203">
-        <v>149</v>
-      </c>
-      <c r="ET203">
-        <v>150</v>
-      </c>
-      <c r="EU203">
-        <v>151</v>
-      </c>
-      <c r="EV203">
-        <v>152</v>
-      </c>
-      <c r="EW203">
-        <v>153</v>
-      </c>
-      <c r="EX203">
-        <v>154</v>
-      </c>
-      <c r="EY203">
-        <v>155</v>
-      </c>
-      <c r="EZ203">
-        <v>156</v>
-      </c>
-      <c r="FA203">
-        <v>157</v>
-      </c>
-      <c r="FB203">
-        <v>158</v>
-      </c>
-      <c r="FC203">
-        <v>159</v>
-      </c>
-      <c r="FD203">
-        <v>160</v>
-      </c>
-      <c r="FE203">
-        <v>161</v>
-      </c>
-      <c r="FF203">
-        <v>162</v>
-      </c>
-      <c r="FG203">
-        <v>163</v>
-      </c>
-      <c r="FH203">
-        <v>164</v>
-      </c>
-      <c r="FI203">
-        <v>165</v>
-      </c>
-      <c r="FJ203">
-        <v>166</v>
-      </c>
-      <c r="FK203">
-        <v>167</v>
-      </c>
-      <c r="FL203">
-        <v>168</v>
-      </c>
-      <c r="FM203">
-        <v>169</v>
-      </c>
-      <c r="FN203">
-        <v>170</v>
-      </c>
-      <c r="FO203">
-        <v>171</v>
-      </c>
-      <c r="FP203">
-        <v>172</v>
-      </c>
-      <c r="FQ203">
-        <v>173</v>
-      </c>
-      <c r="FR203">
-        <v>174</v>
-      </c>
-      <c r="FS203">
-        <v>175</v>
-      </c>
-      <c r="FT203">
-        <v>176</v>
-      </c>
-      <c r="FU203">
-        <v>177</v>
-      </c>
-      <c r="FV203">
-        <v>178</v>
-      </c>
-      <c r="FW203">
-        <v>179</v>
-      </c>
-      <c r="FX203">
-        <v>180</v>
-      </c>
-      <c r="FY203">
-        <v>181</v>
-      </c>
-      <c r="FZ203">
-        <v>182</v>
-      </c>
-      <c r="GA203">
-        <v>183</v>
-      </c>
-      <c r="GB203">
-        <v>184</v>
-      </c>
-      <c r="GC203">
-        <v>185</v>
-      </c>
-      <c r="GD203">
-        <v>186</v>
-      </c>
-      <c r="GE203">
-        <v>187</v>
-      </c>
-      <c r="GF203">
-        <v>188</v>
-      </c>
-      <c r="GG203">
-        <v>189</v>
-      </c>
-      <c r="GH203">
-        <v>190</v>
-      </c>
-      <c r="GI203">
-        <v>191</v>
-      </c>
-      <c r="GJ203">
-        <v>192</v>
-      </c>
-      <c r="GK203">
-        <v>193</v>
-      </c>
-      <c r="GL203">
-        <v>194</v>
-      </c>
-      <c r="GM203">
-        <v>195</v>
-      </c>
-      <c r="GN203">
-        <v>196</v>
-      </c>
-      <c r="GO203">
-        <v>197</v>
-      </c>
-      <c r="GP203">
-        <v>198</v>
-      </c>
-      <c r="GQ203">
-        <v>199</v>
-      </c>
-      <c r="GR203">
-        <v>200</v>
-      </c>
-      <c r="GS203">
-        <v>201</v>
-      </c>
-      <c r="GT203">
-        <v>202</v>
-      </c>
-      <c r="GU203">
-        <v>203</v>
-      </c>
-      <c r="GV203">
-        <v>204</v>
-      </c>
-      <c r="GW203">
-        <v>205</v>
-      </c>
-      <c r="GX203">
-        <v>206</v>
-      </c>
-      <c r="GY203">
-        <v>207</v>
-      </c>
-      <c r="GZ203">
-        <v>208</v>
-      </c>
-      <c r="HA203">
-        <v>209</v>
-      </c>
-      <c r="HB203">
-        <v>210</v>
-      </c>
-      <c r="HC203">
-        <v>211</v>
-      </c>
-      <c r="HD203">
-        <v>212</v>
-      </c>
-      <c r="HE203">
-        <v>213</v>
-      </c>
-      <c r="HF203">
-        <v>214</v>
-      </c>
-      <c r="HG203">
-        <v>215</v>
-      </c>
-      <c r="HH203">
-        <v>216</v>
-      </c>
-      <c r="HI203">
-        <v>217</v>
-      </c>
-      <c r="HJ203">
-        <v>218</v>
-      </c>
-      <c r="HK203">
-        <v>219</v>
-      </c>
-      <c r="HL203">
-        <v>220</v>
-      </c>
-      <c r="HM203">
-        <v>221</v>
-      </c>
-      <c r="HN203">
-        <v>222</v>
-      </c>
-      <c r="HO203">
-        <v>223</v>
-      </c>
-      <c r="HP203">
-        <v>224</v>
-      </c>
-      <c r="HQ203">
-        <v>225</v>
-      </c>
-      <c r="HR203">
-        <v>226</v>
-      </c>
-      <c r="HS203">
-        <v>227</v>
-      </c>
-      <c r="HT203">
-        <v>228</v>
-      </c>
-      <c r="HU203">
-        <v>229</v>
-      </c>
-      <c r="HV203">
-        <v>230</v>
-      </c>
-      <c r="HW203">
-        <v>231</v>
-      </c>
-      <c r="HX203">
-        <v>232</v>
-      </c>
-      <c r="HY203">
-        <v>233</v>
-      </c>
-      <c r="HZ203">
-        <v>234</v>
-      </c>
-      <c r="IA203">
-        <v>235</v>
-      </c>
-      <c r="IB203">
-        <v>236</v>
-      </c>
-      <c r="IC203">
-        <v>237</v>
-      </c>
-      <c r="ID203">
-        <v>238</v>
-      </c>
-      <c r="IE203">
-        <v>239</v>
-      </c>
-      <c r="IF203">
-        <v>240</v>
-      </c>
-      <c r="IG203">
-        <v>241</v>
-      </c>
-      <c r="IH203">
-        <v>242</v>
-      </c>
-      <c r="II203">
-        <v>243</v>
-      </c>
-      <c r="IJ203">
-        <v>244</v>
-      </c>
-      <c r="IK203">
-        <v>245</v>
-      </c>
-      <c r="IL203">
-        <v>246</v>
-      </c>
-      <c r="IM203">
-        <v>247</v>
-      </c>
-      <c r="IN203">
-        <v>248</v>
-      </c>
-      <c r="IO203">
-        <v>249</v>
-      </c>
-      <c r="IP203">
-        <v>250</v>
-      </c>
-      <c r="IQ203">
-        <v>251</v>
-      </c>
-      <c r="IR203">
-        <v>252</v>
-      </c>
-      <c r="IS203">
-        <v>253</v>
-      </c>
-      <c r="IT203">
-        <v>254</v>
-      </c>
-      <c r="IU203">
-        <v>255</v>
-      </c>
-      <c r="IV203">
-        <v>256</v>
-      </c>
-      <c r="IW203">
-        <v>257</v>
-      </c>
-      <c r="IX203">
-        <v>258</v>
-      </c>
-      <c r="IY203">
-        <v>259</v>
-      </c>
-      <c r="IZ203">
-        <v>260</v>
-      </c>
-      <c r="JA203">
-        <v>261</v>
-      </c>
-      <c r="JB203">
-        <v>262</v>
-      </c>
-      <c r="JC203">
-        <v>263</v>
-      </c>
-      <c r="JD203">
-        <v>264</v>
-      </c>
-      <c r="JE203">
-        <v>265</v>
-      </c>
-      <c r="JF203">
-        <v>266</v>
-      </c>
-      <c r="JG203">
-        <v>267</v>
-      </c>
-      <c r="JH203">
-        <v>268</v>
-      </c>
-      <c r="JI203">
-        <v>269</v>
-      </c>
-      <c r="JJ203">
-        <v>270</v>
-      </c>
-      <c r="JK203">
-        <v>271</v>
-      </c>
-      <c r="JL203">
-        <v>272</v>
-      </c>
-      <c r="JM203">
-        <v>273</v>
-      </c>
-      <c r="JN203">
-        <v>274</v>
-      </c>
-      <c r="JO203">
-        <v>275</v>
-      </c>
-      <c r="JP203">
-        <v>276</v>
-      </c>
-      <c r="JQ203">
-        <v>277</v>
-      </c>
-      <c r="JR203">
-        <v>278</v>
-      </c>
-      <c r="JS203">
-        <v>279</v>
-      </c>
-      <c r="JT203">
-        <v>280</v>
-      </c>
-      <c r="JU203">
-        <v>281</v>
-      </c>
-      <c r="JV203">
-        <v>282</v>
-      </c>
-      <c r="JW203">
-        <v>283</v>
-      </c>
-      <c r="JX203">
-        <v>284</v>
-      </c>
-      <c r="JY203">
-        <v>285</v>
-      </c>
-      <c r="JZ203">
-        <v>286</v>
-      </c>
-      <c r="KA203">
-        <v>287</v>
-      </c>
-      <c r="KB203">
-        <v>288</v>
-      </c>
-      <c r="KC203">
-        <v>289</v>
-      </c>
-      <c r="KD203">
-        <v>290</v>
-      </c>
-      <c r="KE203">
-        <v>291</v>
-      </c>
-      <c r="KF203">
-        <v>292</v>
-      </c>
-      <c r="KG203">
-        <v>293</v>
-      </c>
-      <c r="KH203">
-        <v>294</v>
-      </c>
-      <c r="KI203">
-        <v>295</v>
-      </c>
-      <c r="KJ203">
-        <v>296</v>
-      </c>
-      <c r="KK203">
-        <v>297</v>
-      </c>
-      <c r="KL203">
-        <v>298</v>
-      </c>
-      <c r="KM203">
-        <v>299</v>
-      </c>
-      <c r="KN203">
-        <v>300</v>
-      </c>
-      <c r="KO203">
-        <v>301</v>
-      </c>
-      <c r="KP203">
-        <v>302</v>
-      </c>
-      <c r="KQ203">
-        <v>303</v>
-      </c>
-      <c r="KR203">
-        <v>304</v>
-      </c>
-      <c r="KS203">
-        <v>305</v>
-      </c>
-      <c r="KT203">
-        <v>306</v>
-      </c>
-      <c r="KU203">
-        <v>307</v>
-      </c>
-      <c r="KV203">
-        <v>308</v>
-      </c>
-      <c r="KW203">
-        <v>309</v>
-      </c>
-      <c r="KX203">
-        <v>310</v>
-      </c>
-      <c r="KY203">
-        <v>311</v>
-      </c>
-      <c r="KZ203">
-        <v>312</v>
-      </c>
-      <c r="LA203">
-        <v>313</v>
-      </c>
-      <c r="LB203">
-        <v>314</v>
-      </c>
-      <c r="LC203">
-        <v>315</v>
-      </c>
-      <c r="LD203">
-        <v>316</v>
-      </c>
-      <c r="LE203">
-        <v>317</v>
-      </c>
-      <c r="LF203">
-        <v>318</v>
-      </c>
-      <c r="LG203">
-        <v>319</v>
-      </c>
-      <c r="LH203">
-        <v>320</v>
-      </c>
-      <c r="LI203">
-        <v>321</v>
-      </c>
-      <c r="LJ203">
-        <v>322</v>
-      </c>
-      <c r="LK203">
-        <v>323</v>
-      </c>
-      <c r="LL203">
-        <v>324</v>
-      </c>
-      <c r="LM203">
-        <v>325</v>
-      </c>
-      <c r="LN203">
-        <v>326</v>
-      </c>
-      <c r="LO203">
-        <v>327</v>
-      </c>
-      <c r="LP203">
-        <v>328</v>
-      </c>
-      <c r="LQ203">
-        <v>329</v>
-      </c>
-      <c r="LR203">
-        <v>330</v>
-      </c>
-      <c r="LS203">
-        <v>331</v>
-      </c>
-      <c r="LT203">
-        <v>332</v>
-      </c>
-      <c r="LU203">
-        <v>333</v>
-      </c>
-      <c r="LV203">
-        <v>334</v>
-      </c>
-      <c r="LW203">
-        <v>335</v>
-      </c>
-      <c r="LX203">
-        <v>336</v>
-      </c>
-      <c r="LY203">
-        <v>337</v>
-      </c>
-      <c r="LZ203">
-        <v>338</v>
-      </c>
-      <c r="MA203">
-        <v>339</v>
-      </c>
-      <c r="MB203">
-        <v>340</v>
-      </c>
-      <c r="MC203">
-        <v>341</v>
-      </c>
-      <c r="MD203">
-        <v>342</v>
-      </c>
-      <c r="ME203">
-        <v>343</v>
-      </c>
-      <c r="MF203">
-        <v>344</v>
-      </c>
-      <c r="MG203">
-        <v>345</v>
-      </c>
-      <c r="MH203">
-        <v>346</v>
-      </c>
-      <c r="MI203">
-        <v>347</v>
-      </c>
-      <c r="MJ203">
-        <v>348</v>
-      </c>
-      <c r="MK203">
-        <v>349</v>
-      </c>
-      <c r="ML203">
-        <v>350</v>
-      </c>
-      <c r="MM203">
-        <v>351</v>
-      </c>
-      <c r="MN203">
-        <v>352</v>
-      </c>
-      <c r="MO203">
-        <v>353</v>
-      </c>
-      <c r="MP203">
-        <v>354</v>
-      </c>
-      <c r="MQ203">
-        <v>355</v>
-      </c>
-      <c r="MR203">
-        <v>356</v>
-      </c>
-      <c r="MS203">
-        <v>357</v>
-      </c>
-      <c r="MT203">
-        <v>358</v>
-      </c>
-      <c r="MU203">
-        <v>359</v>
-      </c>
-      <c r="MV203">
-        <v>360</v>
-      </c>
-      <c r="MW203">
-        <v>361</v>
-      </c>
-      <c r="MX203">
-        <v>362</v>
-      </c>
-      <c r="MY203">
-        <v>363</v>
-      </c>
-      <c r="MZ203">
-        <v>364</v>
-      </c>
-      <c r="NA203">
-        <v>365</v>
-      </c>
-      <c r="NB203">
-        <v>366</v>
-      </c>
-      <c r="NC203">
-        <v>367</v>
-      </c>
-      <c r="ND203">
-        <v>368</v>
-      </c>
-      <c r="NE203">
-        <v>369</v>
-      </c>
-      <c r="NF203">
-        <v>370</v>
-      </c>
-      <c r="NG203">
-        <v>371</v>
-      </c>
-      <c r="NH203">
-        <v>372</v>
-      </c>
-      <c r="NI203">
-        <v>373</v>
-      </c>
-      <c r="NJ203">
-        <v>374</v>
-      </c>
-      <c r="NK203">
-        <v>375</v>
-      </c>
-      <c r="NL203">
-        <v>376</v>
-      </c>
-      <c r="NM203">
-        <v>377</v>
-      </c>
-      <c r="NN203">
-        <v>378</v>
-      </c>
-      <c r="NO203">
-        <v>379</v>
-      </c>
-      <c r="NP203">
-        <v>380</v>
-      </c>
-      <c r="NQ203">
-        <v>381</v>
-      </c>
-      <c r="NR203">
-        <v>382</v>
-      </c>
-      <c r="NS203">
-        <v>383</v>
-      </c>
-      <c r="NT203">
-        <v>384</v>
-      </c>
-      <c r="NU203">
-        <v>385</v>
-      </c>
-      <c r="NV203">
-        <v>386</v>
-      </c>
-      <c r="NW203">
-        <v>387</v>
-      </c>
-      <c r="NX203">
-        <v>388</v>
-      </c>
-      <c r="NY203">
-        <v>389</v>
-      </c>
-      <c r="NZ203">
-        <v>390</v>
-      </c>
-      <c r="OA203">
-        <v>391</v>
-      </c>
-      <c r="OB203">
-        <v>392</v>
-      </c>
-      <c r="OC203">
-        <v>393</v>
-      </c>
-      <c r="OD203">
-        <v>394</v>
-      </c>
-      <c r="OE203">
-        <v>395</v>
-      </c>
-      <c r="OF203">
-        <v>396</v>
-      </c>
-      <c r="OG203">
-        <v>397</v>
-      </c>
-      <c r="OH203">
-        <v>398</v>
-      </c>
-      <c r="OI203">
-        <v>399</v>
-      </c>
-      <c r="OJ203">
-        <v>400</v>
-      </c>
-      <c r="OK203">
-        <v>401</v>
-      </c>
-      <c r="OL203">
-        <v>402</v>
-      </c>
-      <c r="OM203">
-        <v>403</v>
-      </c>
-      <c r="ON203">
-        <v>404</v>
-      </c>
-      <c r="OO203">
-        <v>405</v>
-      </c>
-      <c r="OP203">
-        <v>406</v>
-      </c>
-      <c r="OQ203">
-        <v>407</v>
-      </c>
-      <c r="OR203">
-        <v>408</v>
-      </c>
-      <c r="OS203">
-        <v>409</v>
-      </c>
-      <c r="OT203">
-        <v>410</v>
-      </c>
-      <c r="OU203">
-        <v>411</v>
-      </c>
-      <c r="OV203">
-        <v>412</v>
-      </c>
-      <c r="OW203">
-        <v>413</v>
-      </c>
-      <c r="OX203">
-        <v>414</v>
-      </c>
-      <c r="OY203">
-        <v>415</v>
-      </c>
-      <c r="OZ203">
-        <v>416</v>
-      </c>
-      <c r="PA203">
-        <v>417</v>
-      </c>
-      <c r="PB203">
-        <v>418</v>
-      </c>
-      <c r="PC203">
-        <v>419</v>
-      </c>
-      <c r="PD203">
-        <v>420</v>
-      </c>
-      <c r="PE203">
-        <v>421</v>
-      </c>
-      <c r="PF203">
-        <v>422</v>
-      </c>
-      <c r="PG203">
-        <v>423</v>
-      </c>
-      <c r="PH203">
-        <v>424</v>
-      </c>
-      <c r="PI203">
-        <v>425</v>
-      </c>
-      <c r="PJ203">
-        <v>426</v>
-      </c>
-      <c r="PK203">
-        <v>427</v>
-      </c>
-      <c r="PL203">
-        <v>428</v>
-      </c>
-      <c r="PM203">
-        <v>429</v>
-      </c>
-      <c r="PN203">
-        <v>430</v>
-      </c>
-      <c r="PO203">
-        <v>431</v>
-      </c>
-      <c r="PP203">
-        <v>432</v>
-      </c>
-      <c r="PQ203">
-        <v>433</v>
-      </c>
-      <c r="PR203">
-        <v>434</v>
-      </c>
-      <c r="PS203">
-        <v>435</v>
-      </c>
-      <c r="PT203">
-        <v>436</v>
-      </c>
-      <c r="PU203">
-        <v>437</v>
-      </c>
-      <c r="PV203">
-        <v>438</v>
-      </c>
-      <c r="PW203">
-        <v>439</v>
-      </c>
-      <c r="PX203">
-        <v>440</v>
-      </c>
-      <c r="PY203">
-        <v>441</v>
-      </c>
-      <c r="PZ203">
-        <v>442</v>
-      </c>
-      <c r="QA203">
-        <v>443</v>
-      </c>
-      <c r="QB203">
-        <v>444</v>
-      </c>
-      <c r="QC203">
-        <v>445</v>
-      </c>
-      <c r="QD203">
-        <v>446</v>
-      </c>
-      <c r="QE203">
-        <v>447</v>
-      </c>
-      <c r="QF203">
-        <v>448</v>
-      </c>
-      <c r="QG203">
-        <v>449</v>
-      </c>
-      <c r="QH203">
-        <v>450</v>
-      </c>
-      <c r="QI203">
-        <v>451</v>
-      </c>
-      <c r="QJ203">
-        <v>452</v>
-      </c>
-      <c r="QK203">
-        <v>453</v>
-      </c>
-      <c r="QL203">
-        <v>454</v>
-      </c>
-      <c r="QM203">
-        <v>455</v>
-      </c>
-      <c r="QN203">
-        <v>456</v>
-      </c>
-      <c r="QO203">
-        <v>457</v>
-      </c>
-      <c r="QP203">
-        <v>458</v>
-      </c>
-      <c r="QQ203">
-        <v>459</v>
-      </c>
-      <c r="QR203">
-        <v>460</v>
-      </c>
-      <c r="QS203">
-        <v>461</v>
-      </c>
-      <c r="QT203">
-        <v>462</v>
-      </c>
-      <c r="QU203">
-        <v>463</v>
-      </c>
-      <c r="QV203">
-        <v>464</v>
-      </c>
-      <c r="QW203">
-        <v>465</v>
-      </c>
-      <c r="QX203">
-        <v>466</v>
-      </c>
-      <c r="QY203">
-        <v>467</v>
-      </c>
-      <c r="QZ203">
-        <v>468</v>
-      </c>
-      <c r="RA203">
-        <v>469</v>
-      </c>
-      <c r="RB203">
-        <v>470</v>
-      </c>
-      <c r="RC203">
-        <v>471</v>
-      </c>
-      <c r="RD203">
-        <v>472</v>
-      </c>
-      <c r="RE203">
-        <v>473</v>
-      </c>
-      <c r="RF203">
-        <v>474</v>
-      </c>
-      <c r="RG203">
-        <v>475</v>
-      </c>
-      <c r="RH203">
-        <v>476</v>
-      </c>
-      <c r="RI203">
-        <v>477</v>
-      </c>
-      <c r="RJ203">
-        <v>478</v>
-      </c>
-      <c r="RK203">
-        <v>479</v>
-      </c>
-      <c r="RL203">
-        <v>480</v>
-      </c>
-      <c r="RM203">
-        <v>481</v>
-      </c>
-      <c r="RN203">
-        <v>482</v>
-      </c>
-      <c r="RO203">
-        <v>483</v>
-      </c>
-      <c r="RP203">
-        <v>484</v>
-      </c>
-      <c r="RQ203">
-        <v>485</v>
-      </c>
-      <c r="RR203">
-        <v>486</v>
-      </c>
-      <c r="RS203">
-        <v>487</v>
-      </c>
-      <c r="RT203">
-        <v>488</v>
-      </c>
-      <c r="RU203">
-        <v>489</v>
-      </c>
-      <c r="RV203">
-        <v>490</v>
-      </c>
-      <c r="RW203">
-        <v>491</v>
-      </c>
-      <c r="RX203">
-        <v>492</v>
-      </c>
-      <c r="RY203">
-        <v>493</v>
-      </c>
-      <c r="RZ203">
-        <v>494</v>
-      </c>
-      <c r="SA203">
-        <v>495</v>
-      </c>
-      <c r="SB203">
-        <v>496</v>
-      </c>
-      <c r="SC203">
-        <v>497</v>
-      </c>
-      <c r="SD203">
-        <v>498</v>
-      </c>
-      <c r="SE203">
-        <v>499</v>
-      </c>
-      <c r="SF203">
-        <v>500</v>
-      </c>
-      <c r="SG203">
-        <v>501</v>
-      </c>
-      <c r="SH203">
-        <v>502</v>
-      </c>
-      <c r="SI203">
-        <v>503</v>
-      </c>
-      <c r="SJ203">
-        <v>504</v>
-      </c>
-      <c r="SK203">
-        <v>505</v>
-      </c>
-      <c r="SL203">
-        <v>506</v>
-      </c>
-      <c r="SM203">
-        <v>507</v>
-      </c>
-      <c r="SN203">
-        <v>508</v>
-      </c>
-      <c r="SO203">
-        <v>509</v>
-      </c>
-      <c r="SP203">
-        <v>510</v>
-      </c>
-      <c r="SQ203">
-        <v>511</v>
-      </c>
-      <c r="SR203">
-        <v>512</v>
-      </c>
-      <c r="SS203">
-        <v>513</v>
-      </c>
-      <c r="ST203">
-        <v>514</v>
-      </c>
-      <c r="SU203">
-        <v>515</v>
-      </c>
-      <c r="SV203">
-        <v>516</v>
-      </c>
-      <c r="SW203">
-        <v>517</v>
-      </c>
-      <c r="SX203">
-        <v>518</v>
-      </c>
-      <c r="SY203">
-        <v>519</v>
-      </c>
-      <c r="SZ203">
-        <v>520</v>
-      </c>
-      <c r="TA203">
-        <v>521</v>
-      </c>
-      <c r="TB203">
-        <v>522</v>
-      </c>
-      <c r="TC203">
-        <v>523</v>
-      </c>
-      <c r="TD203">
-        <v>524</v>
-      </c>
-      <c r="TE203">
-        <v>525</v>
-      </c>
-      <c r="TF203">
-        <v>526</v>
-      </c>
-      <c r="TG203">
-        <v>527</v>
-      </c>
-      <c r="TH203">
-        <v>528</v>
-      </c>
-      <c r="TI203">
-        <v>529</v>
-      </c>
-      <c r="TJ203">
-        <v>530</v>
-      </c>
-      <c r="TK203">
-        <v>531</v>
-      </c>
-      <c r="TL203">
-        <v>532</v>
-      </c>
-      <c r="TM203">
-        <v>533</v>
-      </c>
-      <c r="TN203">
-        <v>534</v>
-      </c>
-      <c r="TO203">
-        <v>535</v>
-      </c>
-      <c r="TP203">
-        <v>536</v>
-      </c>
-      <c r="TQ203">
-        <v>537</v>
-      </c>
-      <c r="TR203">
-        <v>538</v>
-      </c>
-      <c r="TS203">
-        <v>539</v>
-      </c>
-      <c r="TT203">
-        <v>540</v>
-      </c>
-      <c r="TU203">
-        <v>541</v>
-      </c>
-      <c r="TV203">
-        <v>542</v>
-      </c>
-      <c r="TW203">
-        <v>543</v>
-      </c>
-      <c r="TX203">
-        <v>544</v>
-      </c>
-      <c r="TY203">
-        <v>545</v>
-      </c>
-      <c r="TZ203">
-        <v>546</v>
-      </c>
-      <c r="UA203">
-        <v>547</v>
-      </c>
-      <c r="UB203">
-        <v>548</v>
-      </c>
-      <c r="UC203">
-        <v>549</v>
-      </c>
-      <c r="UD203">
-        <v>550</v>
-      </c>
-      <c r="UE203">
-        <v>551</v>
-      </c>
-      <c r="UF203">
-        <v>552</v>
-      </c>
-      <c r="UG203">
-        <v>553</v>
-      </c>
-      <c r="UH203">
-        <v>554</v>
-      </c>
-      <c r="UI203">
-        <v>555</v>
-      </c>
-      <c r="UJ203">
-        <v>556</v>
-      </c>
-      <c r="UK203">
-        <v>557</v>
-      </c>
-      <c r="UL203">
-        <v>558</v>
-      </c>
-      <c r="UM203">
-        <v>559</v>
-      </c>
-      <c r="UN203">
-        <v>560</v>
-      </c>
-      <c r="UO203">
-        <v>561</v>
-      </c>
-      <c r="UP203">
-        <v>562</v>
-      </c>
-      <c r="UQ203">
-        <v>563</v>
-      </c>
-      <c r="UR203">
-        <v>564</v>
-      </c>
-      <c r="US203">
-        <v>565</v>
-      </c>
-      <c r="UT203">
-        <v>566</v>
-      </c>
-      <c r="UU203">
-        <v>567</v>
-      </c>
-      <c r="UV203">
-        <v>568</v>
-      </c>
-      <c r="UW203">
-        <v>569</v>
-      </c>
-      <c r="UX203">
-        <v>570</v>
-      </c>
-      <c r="UY203">
-        <v>571</v>
-      </c>
-      <c r="UZ203">
-        <v>572</v>
-      </c>
-      <c r="VA203">
-        <v>573</v>
-      </c>
-      <c r="VB203">
-        <v>574</v>
-      </c>
-      <c r="VC203">
-        <v>575</v>
-      </c>
-      <c r="VD203">
-        <v>576</v>
-      </c>
-      <c r="VE203">
-        <v>577</v>
-      </c>
-      <c r="VF203">
-        <v>578</v>
-      </c>
-      <c r="VG203">
-        <v>579</v>
-      </c>
-      <c r="VH203">
-        <v>580</v>
-      </c>
-      <c r="VI203">
-        <v>581</v>
-      </c>
-      <c r="VJ203">
-        <v>582</v>
-      </c>
-      <c r="VK203">
-        <v>583</v>
-      </c>
-      <c r="VL203">
-        <v>584</v>
-      </c>
-      <c r="VM203">
-        <v>585</v>
-      </c>
-      <c r="VN203">
-        <v>586</v>
-      </c>
-      <c r="VO203">
-        <v>587</v>
-      </c>
-      <c r="VP203">
-        <v>588</v>
-      </c>
-      <c r="VQ203">
-        <v>589</v>
-      </c>
-      <c r="VR203">
-        <v>590</v>
-      </c>
-      <c r="VS203">
-        <v>591</v>
-      </c>
-      <c r="VT203">
-        <v>592</v>
-      </c>
-      <c r="VU203">
-        <v>593</v>
-      </c>
-      <c r="VV203">
-        <v>594</v>
-      </c>
-      <c r="VW203">
-        <v>595</v>
-      </c>
-      <c r="VX203">
-        <v>596</v>
-      </c>
-      <c r="VY203">
-        <v>597</v>
-      </c>
-      <c r="VZ203">
-        <v>598</v>
-      </c>
-      <c r="WA203">
-        <v>599</v>
-      </c>
-      <c r="WB203">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="204" spans="1:600" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="205" spans="1:600" x14ac:dyDescent="0.55000000000000004">
-      <c r="A205" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="207" spans="1:600" x14ac:dyDescent="0.55000000000000004">
-      <c r="A207" s="4"/>
-      <c r="B207" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="208" spans="1:600" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="4"/>
       <c r="B208" s="5" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="4"/>
-      <c r="B209" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A211" s="5" t="s">
-        <v>69</v>
+      <c r="B209" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" s="4"/>
+      <c r="B210" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A212" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A214" t="s">
+      <c r="A212" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" t="s">
         <v>9</v>
-      </c>
-      <c r="B214" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A215">
-        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226">
         <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A228" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A233" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A235" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B235" t="s">
-        <v>27</v>
-      </c>
-      <c r="C235" t="s">
-        <v>72</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A236">
-        <v>1</v>
-      </c>
-      <c r="B236">
-        <f t="shared" ref="B236:B241" si="3">1/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C236" s="8"/>
-      <c r="D236" s="5" t="s">
-        <v>73</v>
+      <c r="A236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236" t="s">
+        <v>26</v>
+      </c>
+      <c r="C236" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B237">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B237:B242" si="3">1/6</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="C237" s="8"/>
-      <c r="D237" s="6" t="s">
-        <v>42</v>
+      <c r="D237" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B238">
         <f t="shared" si="3"/>
@@ -9397,12 +9589,12 @@
       </c>
       <c r="C238" s="8"/>
       <c r="D238" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B239">
         <f t="shared" si="3"/>
@@ -9410,12 +9602,12 @@
       </c>
       <c r="C239" s="8"/>
       <c r="D239" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B240">
         <f t="shared" si="3"/>
@@ -9423,12 +9615,12 @@
       </c>
       <c r="C240" s="8"/>
       <c r="D240" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B241">
         <f t="shared" si="3"/>
@@ -9436,2258 +9628,2470 @@
       </c>
       <c r="C241" s="8"/>
       <c r="D241" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B242" s="7"/>
+      <c r="A242">
+        <v>6</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="C242" s="8"/>
       <c r="D242" s="6" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B243" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C243" s="4"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="8"/>
       <c r="D243" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A245" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B244" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A247" t="s">
-        <v>9</v>
-      </c>
-      <c r="B247" t="s">
-        <v>27</v>
-      </c>
-      <c r="C247" t="s">
-        <v>72</v>
+      <c r="C244" s="4"/>
+      <c r="D244" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A248">
-        <v>1</v>
-      </c>
-      <c r="C248" s="8"/>
-      <c r="D248" s="5" t="s">
-        <v>73</v>
+      <c r="A248" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" t="s">
+        <v>26</v>
+      </c>
+      <c r="C248" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C249" s="8"/>
-      <c r="D249" s="6" t="s">
-        <v>42</v>
+      <c r="D249" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C250" s="8"/>
       <c r="D250" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C251" s="8"/>
       <c r="D251" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C252" s="8"/>
       <c r="D252" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C253" s="8"/>
       <c r="D253" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C254" s="8"/>
       <c r="D254" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
-        <v>4.5</v>
-      </c>
-      <c r="C255" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C255" s="8"/>
       <c r="D255" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B259" s="7"/>
-      <c r="C259" s="8"/>
+      <c r="A259">
+        <v>6</v>
+      </c>
+      <c r="C259" s="4"/>
       <c r="D259" s="6" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B260" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C260" s="4"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="8"/>
       <c r="D260" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A262" t="s">
-        <v>78</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B261" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C261" s="4"/>
+      <c r="D261" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A266" t="s">
-        <v>80</v>
-      </c>
-      <c r="H266" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I266" s="10"/>
-      <c r="J266" s="10"/>
-      <c r="K266" s="10"/>
-      <c r="L266" s="10"/>
-      <c r="M266" s="10"/>
-      <c r="N266" s="10"/>
-      <c r="O266" s="10"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
-        <v>83</v>
-      </c>
-      <c r="H267" s="10"/>
-      <c r="I267" s="10"/>
-      <c r="J267" s="10"/>
-      <c r="K267" s="10"/>
-      <c r="L267" s="10"/>
-      <c r="M267" s="10"/>
-      <c r="N267" s="10"/>
-      <c r="O267" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="H267" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I267" s="11"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="11"/>
+      <c r="M267" s="11"/>
+      <c r="N267" s="11"/>
+      <c r="O267" s="11"/>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>81</v>
       </c>
-      <c r="H268" s="10"/>
-      <c r="I268" s="10"/>
-      <c r="J268" s="10"/>
-      <c r="K268" s="10"/>
-      <c r="L268" s="10"/>
-      <c r="M268" s="10"/>
-      <c r="N268" s="10"/>
-      <c r="O268" s="10"/>
+      <c r="H268" s="11"/>
+      <c r="I268" s="11"/>
+      <c r="J268" s="11"/>
+      <c r="K268" s="11"/>
+      <c r="L268" s="11"/>
+      <c r="M268" s="11"/>
+      <c r="N268" s="11"/>
+      <c r="O268" s="11"/>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A269" s="9" t="s">
+      <c r="A269" t="s">
+        <v>79</v>
+      </c>
+      <c r="H269" s="11"/>
+      <c r="I269" s="11"/>
+      <c r="J269" s="11"/>
+      <c r="K269" s="11"/>
+      <c r="L269" s="11"/>
+      <c r="M269" s="11"/>
+      <c r="N269" s="11"/>
+      <c r="O269" s="11"/>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H270" s="11"/>
+      <c r="I270" s="11"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="11"/>
+      <c r="L270" s="11"/>
+      <c r="M270" s="11"/>
+      <c r="N270" s="11"/>
+      <c r="O270" s="11"/>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="H271" s="11"/>
+      <c r="I271" s="11"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="11"/>
+      <c r="L271" s="11"/>
+      <c r="M271" s="11"/>
+      <c r="N271" s="11"/>
+      <c r="O271" s="11"/>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="H272" s="11"/>
+      <c r="I272" s="11"/>
+      <c r="J272" s="11"/>
+      <c r="K272" s="11"/>
+      <c r="L272" s="11"/>
+      <c r="M272" s="11"/>
+      <c r="N272" s="11"/>
+      <c r="O272" s="11"/>
+    </row>
+    <row r="273" spans="1:600" x14ac:dyDescent="0.55000000000000004">
+      <c r="H273" s="11"/>
+      <c r="I273" s="11"/>
+      <c r="J273" s="11"/>
+      <c r="K273" s="11"/>
+      <c r="L273" s="11"/>
+      <c r="M273" s="11"/>
+      <c r="N273" s="11"/>
+      <c r="O273" s="11"/>
+    </row>
+    <row r="275" spans="1:600" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+      <c r="D275">
+        <v>4</v>
+      </c>
+      <c r="E275">
+        <v>5</v>
+      </c>
+      <c r="F275">
+        <v>6</v>
+      </c>
+      <c r="G275">
+        <v>7</v>
+      </c>
+      <c r="H275">
+        <v>8</v>
+      </c>
+      <c r="I275">
+        <v>9</v>
+      </c>
+      <c r="J275">
+        <v>10</v>
+      </c>
+      <c r="K275">
+        <v>11</v>
+      </c>
+      <c r="L275">
+        <v>12</v>
+      </c>
+      <c r="M275">
+        <v>13</v>
+      </c>
+      <c r="N275">
+        <v>14</v>
+      </c>
+      <c r="O275">
+        <v>15</v>
+      </c>
+      <c r="P275">
+        <v>16</v>
+      </c>
+      <c r="Q275">
+        <v>17</v>
+      </c>
+      <c r="R275">
+        <v>18</v>
+      </c>
+      <c r="S275">
+        <v>19</v>
+      </c>
+      <c r="T275">
+        <v>20</v>
+      </c>
+      <c r="U275">
+        <v>21</v>
+      </c>
+      <c r="V275">
+        <v>22</v>
+      </c>
+      <c r="W275">
+        <v>23</v>
+      </c>
+      <c r="X275">
+        <v>24</v>
+      </c>
+      <c r="Y275">
+        <v>25</v>
+      </c>
+      <c r="Z275">
+        <v>26</v>
+      </c>
+      <c r="AA275">
+        <v>27</v>
+      </c>
+      <c r="AB275">
+        <v>28</v>
+      </c>
+      <c r="AC275">
+        <v>29</v>
+      </c>
+      <c r="AD275">
+        <v>30</v>
+      </c>
+      <c r="AE275">
+        <v>31</v>
+      </c>
+      <c r="AF275">
+        <v>32</v>
+      </c>
+      <c r="AG275">
+        <v>33</v>
+      </c>
+      <c r="AH275">
+        <v>34</v>
+      </c>
+      <c r="AI275">
+        <v>35</v>
+      </c>
+      <c r="AJ275">
+        <v>36</v>
+      </c>
+      <c r="AK275">
+        <v>37</v>
+      </c>
+      <c r="AL275">
+        <v>38</v>
+      </c>
+      <c r="AM275">
+        <v>39</v>
+      </c>
+      <c r="AN275">
+        <v>40</v>
+      </c>
+      <c r="AO275">
+        <v>41</v>
+      </c>
+      <c r="AP275">
+        <v>42</v>
+      </c>
+      <c r="AQ275">
+        <v>43</v>
+      </c>
+      <c r="AR275">
+        <v>44</v>
+      </c>
+      <c r="AS275">
+        <v>45</v>
+      </c>
+      <c r="AT275">
+        <v>46</v>
+      </c>
+      <c r="AU275">
+        <v>47</v>
+      </c>
+      <c r="AV275">
+        <v>48</v>
+      </c>
+      <c r="AW275">
+        <v>49</v>
+      </c>
+      <c r="AX275">
+        <v>50</v>
+      </c>
+      <c r="AY275">
+        <v>51</v>
+      </c>
+      <c r="AZ275">
+        <v>52</v>
+      </c>
+      <c r="BA275">
+        <v>53</v>
+      </c>
+      <c r="BB275">
+        <v>54</v>
+      </c>
+      <c r="BC275">
+        <v>55</v>
+      </c>
+      <c r="BD275">
+        <v>56</v>
+      </c>
+      <c r="BE275">
+        <v>57</v>
+      </c>
+      <c r="BF275">
+        <v>58</v>
+      </c>
+      <c r="BG275">
+        <v>59</v>
+      </c>
+      <c r="BH275">
+        <v>60</v>
+      </c>
+      <c r="BI275">
+        <v>61</v>
+      </c>
+      <c r="BJ275">
+        <v>62</v>
+      </c>
+      <c r="BK275">
+        <v>63</v>
+      </c>
+      <c r="BL275">
+        <v>64</v>
+      </c>
+      <c r="BM275">
+        <v>65</v>
+      </c>
+      <c r="BN275">
+        <v>66</v>
+      </c>
+      <c r="BO275">
+        <v>67</v>
+      </c>
+      <c r="BP275">
+        <v>68</v>
+      </c>
+      <c r="BQ275">
+        <v>69</v>
+      </c>
+      <c r="BR275">
+        <v>70</v>
+      </c>
+      <c r="BS275">
+        <v>71</v>
+      </c>
+      <c r="BT275">
+        <v>72</v>
+      </c>
+      <c r="BU275">
+        <v>73</v>
+      </c>
+      <c r="BV275">
+        <v>74</v>
+      </c>
+      <c r="BW275">
+        <v>75</v>
+      </c>
+      <c r="BX275">
+        <v>76</v>
+      </c>
+      <c r="BY275">
+        <v>77</v>
+      </c>
+      <c r="BZ275">
+        <v>78</v>
+      </c>
+      <c r="CA275">
+        <v>79</v>
+      </c>
+      <c r="CB275">
+        <v>80</v>
+      </c>
+      <c r="CC275">
+        <v>81</v>
+      </c>
+      <c r="CD275">
         <v>82</v>
       </c>
-      <c r="H269" s="10"/>
-      <c r="I269" s="10"/>
-      <c r="J269" s="10"/>
-      <c r="K269" s="10"/>
-      <c r="L269" s="10"/>
-      <c r="M269" s="10"/>
-      <c r="N269" s="10"/>
-      <c r="O269" s="10"/>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="H270" s="10"/>
-      <c r="I270" s="10"/>
-      <c r="J270" s="10"/>
-      <c r="K270" s="10"/>
-      <c r="L270" s="10"/>
-      <c r="M270" s="10"/>
-      <c r="N270" s="10"/>
-      <c r="O270" s="10"/>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="H271" s="10"/>
-      <c r="I271" s="10"/>
-      <c r="J271" s="10"/>
-      <c r="K271" s="10"/>
-      <c r="L271" s="10"/>
-      <c r="M271" s="10"/>
-      <c r="N271" s="10"/>
-      <c r="O271" s="10"/>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="H272" s="10"/>
-      <c r="I272" s="10"/>
-      <c r="J272" s="10"/>
-      <c r="K272" s="10"/>
-      <c r="L272" s="10"/>
-      <c r="M272" s="10"/>
-      <c r="N272" s="10"/>
-      <c r="O272" s="10"/>
-    </row>
-    <row r="274" spans="1:600" x14ac:dyDescent="0.55000000000000004">
-      <c r="A274">
-        <v>1</v>
-      </c>
-      <c r="B274">
-        <v>2</v>
-      </c>
-      <c r="C274">
-        <v>3</v>
-      </c>
-      <c r="D274">
-        <v>4</v>
-      </c>
-      <c r="E274">
-        <v>5</v>
-      </c>
-      <c r="F274">
-        <v>6</v>
-      </c>
-      <c r="G274">
-        <v>7</v>
-      </c>
-      <c r="H274">
-        <v>8</v>
-      </c>
-      <c r="I274">
-        <v>9</v>
-      </c>
-      <c r="J274">
-        <v>10</v>
-      </c>
-      <c r="K274">
-        <v>11</v>
-      </c>
-      <c r="L274">
-        <v>12</v>
-      </c>
-      <c r="M274">
-        <v>13</v>
-      </c>
-      <c r="N274">
-        <v>14</v>
-      </c>
-      <c r="O274">
-        <v>15</v>
-      </c>
-      <c r="P274">
-        <v>16</v>
-      </c>
-      <c r="Q274">
-        <v>17</v>
-      </c>
-      <c r="R274">
-        <v>18</v>
-      </c>
-      <c r="S274">
-        <v>19</v>
-      </c>
-      <c r="T274">
-        <v>20</v>
-      </c>
-      <c r="U274">
-        <v>21</v>
-      </c>
-      <c r="V274">
-        <v>22</v>
-      </c>
-      <c r="W274">
-        <v>23</v>
-      </c>
-      <c r="X274">
-        <v>24</v>
-      </c>
-      <c r="Y274">
-        <v>25</v>
-      </c>
-      <c r="Z274">
-        <v>26</v>
-      </c>
-      <c r="AA274">
-        <v>27</v>
-      </c>
-      <c r="AB274">
-        <v>28</v>
-      </c>
-      <c r="AC274">
-        <v>29</v>
-      </c>
-      <c r="AD274">
-        <v>30</v>
-      </c>
-      <c r="AE274">
-        <v>31</v>
-      </c>
-      <c r="AF274">
-        <v>32</v>
-      </c>
-      <c r="AG274">
-        <v>33</v>
-      </c>
-      <c r="AH274">
-        <v>34</v>
-      </c>
-      <c r="AI274">
-        <v>35</v>
-      </c>
-      <c r="AJ274">
-        <v>36</v>
-      </c>
-      <c r="AK274">
-        <v>37</v>
-      </c>
-      <c r="AL274">
-        <v>38</v>
-      </c>
-      <c r="AM274">
-        <v>39</v>
-      </c>
-      <c r="AN274">
-        <v>40</v>
-      </c>
-      <c r="AO274">
-        <v>41</v>
-      </c>
-      <c r="AP274">
-        <v>42</v>
-      </c>
-      <c r="AQ274">
-        <v>43</v>
-      </c>
-      <c r="AR274">
-        <v>44</v>
-      </c>
-      <c r="AS274">
-        <v>45</v>
-      </c>
-      <c r="AT274">
-        <v>46</v>
-      </c>
-      <c r="AU274">
-        <v>47</v>
-      </c>
-      <c r="AV274">
-        <v>48</v>
-      </c>
-      <c r="AW274">
-        <v>49</v>
-      </c>
-      <c r="AX274">
-        <v>50</v>
-      </c>
-      <c r="AY274">
-        <v>51</v>
-      </c>
-      <c r="AZ274">
-        <v>52</v>
-      </c>
-      <c r="BA274">
-        <v>53</v>
-      </c>
-      <c r="BB274">
-        <v>54</v>
-      </c>
-      <c r="BC274">
-        <v>55</v>
-      </c>
-      <c r="BD274">
-        <v>56</v>
-      </c>
-      <c r="BE274">
-        <v>57</v>
-      </c>
-      <c r="BF274">
-        <v>58</v>
-      </c>
-      <c r="BG274">
-        <v>59</v>
-      </c>
-      <c r="BH274">
-        <v>60</v>
-      </c>
-      <c r="BI274">
-        <v>61</v>
-      </c>
-      <c r="BJ274">
-        <v>62</v>
-      </c>
-      <c r="BK274">
-        <v>63</v>
-      </c>
-      <c r="BL274">
-        <v>64</v>
-      </c>
-      <c r="BM274">
-        <v>65</v>
-      </c>
-      <c r="BN274">
-        <v>66</v>
-      </c>
-      <c r="BO274">
-        <v>67</v>
-      </c>
-      <c r="BP274">
-        <v>68</v>
-      </c>
-      <c r="BQ274">
-        <v>69</v>
-      </c>
-      <c r="BR274">
-        <v>70</v>
-      </c>
-      <c r="BS274">
-        <v>71</v>
-      </c>
-      <c r="BT274">
-        <v>72</v>
-      </c>
-      <c r="BU274">
-        <v>73</v>
-      </c>
-      <c r="BV274">
-        <v>74</v>
-      </c>
-      <c r="BW274">
-        <v>75</v>
-      </c>
-      <c r="BX274">
-        <v>76</v>
-      </c>
-      <c r="BY274">
-        <v>77</v>
-      </c>
-      <c r="BZ274">
-        <v>78</v>
-      </c>
-      <c r="CA274">
-        <v>79</v>
-      </c>
-      <c r="CB274">
-        <v>80</v>
-      </c>
-      <c r="CC274">
-        <v>81</v>
-      </c>
-      <c r="CD274">
-        <v>82</v>
-      </c>
-      <c r="CE274">
+      <c r="CE275">
         <v>83</v>
       </c>
-      <c r="CF274">
+      <c r="CF275">
         <v>84</v>
       </c>
-      <c r="CG274">
+      <c r="CG275">
         <v>85</v>
       </c>
-      <c r="CH274">
+      <c r="CH275">
         <v>86</v>
       </c>
-      <c r="CI274">
+      <c r="CI275">
         <v>87</v>
       </c>
-      <c r="CJ274">
+      <c r="CJ275">
         <v>88</v>
       </c>
-      <c r="CK274">
+      <c r="CK275">
         <v>89</v>
       </c>
-      <c r="CL274">
+      <c r="CL275">
         <v>90</v>
       </c>
-      <c r="CM274">
+      <c r="CM275">
         <v>91</v>
       </c>
-      <c r="CN274">
+      <c r="CN275">
         <v>92</v>
       </c>
-      <c r="CO274">
+      <c r="CO275">
         <v>93</v>
       </c>
-      <c r="CP274">
+      <c r="CP275">
         <v>94</v>
       </c>
-      <c r="CQ274">
+      <c r="CQ275">
         <v>95</v>
       </c>
-      <c r="CR274">
+      <c r="CR275">
         <v>96</v>
       </c>
-      <c r="CS274">
+      <c r="CS275">
         <v>97</v>
       </c>
-      <c r="CT274">
+      <c r="CT275">
         <v>98</v>
       </c>
-      <c r="CU274">
+      <c r="CU275">
         <v>99</v>
       </c>
-      <c r="CV274">
+      <c r="CV275">
         <v>100</v>
       </c>
-      <c r="CW274">
+      <c r="CW275">
         <v>101</v>
       </c>
-      <c r="CX274">
+      <c r="CX275">
         <v>102</v>
       </c>
-      <c r="CY274">
+      <c r="CY275">
         <v>103</v>
       </c>
-      <c r="CZ274">
+      <c r="CZ275">
         <v>104</v>
       </c>
-      <c r="DA274">
+      <c r="DA275">
         <v>105</v>
       </c>
-      <c r="DB274">
+      <c r="DB275">
         <v>106</v>
       </c>
-      <c r="DC274">
+      <c r="DC275">
         <v>107</v>
       </c>
-      <c r="DD274">
+      <c r="DD275">
         <v>108</v>
       </c>
-      <c r="DE274">
+      <c r="DE275">
         <v>109</v>
       </c>
-      <c r="DF274">
+      <c r="DF275">
         <v>110</v>
       </c>
-      <c r="DG274">
+      <c r="DG275">
         <v>111</v>
       </c>
-      <c r="DH274">
+      <c r="DH275">
         <v>112</v>
       </c>
-      <c r="DI274">
+      <c r="DI275">
         <v>113</v>
       </c>
-      <c r="DJ274">
+      <c r="DJ275">
         <v>114</v>
       </c>
-      <c r="DK274">
+      <c r="DK275">
         <v>115</v>
       </c>
-      <c r="DL274">
+      <c r="DL275">
         <v>116</v>
       </c>
-      <c r="DM274">
+      <c r="DM275">
         <v>117</v>
       </c>
-      <c r="DN274">
+      <c r="DN275">
         <v>118</v>
       </c>
-      <c r="DO274">
+      <c r="DO275">
         <v>119</v>
       </c>
-      <c r="DP274">
+      <c r="DP275">
         <v>120</v>
       </c>
-      <c r="DQ274">
+      <c r="DQ275">
         <v>121</v>
       </c>
-      <c r="DR274">
+      <c r="DR275">
         <v>122</v>
       </c>
-      <c r="DS274">
+      <c r="DS275">
         <v>123</v>
       </c>
-      <c r="DT274">
+      <c r="DT275">
         <v>124</v>
       </c>
-      <c r="DU274">
+      <c r="DU275">
         <v>125</v>
       </c>
-      <c r="DV274">
+      <c r="DV275">
         <v>126</v>
       </c>
-      <c r="DW274">
+      <c r="DW275">
         <v>127</v>
       </c>
-      <c r="DX274">
+      <c r="DX275">
         <v>128</v>
       </c>
-      <c r="DY274">
+      <c r="DY275">
         <v>129</v>
       </c>
-      <c r="DZ274">
+      <c r="DZ275">
         <v>130</v>
       </c>
-      <c r="EA274">
+      <c r="EA275">
         <v>131</v>
       </c>
-      <c r="EB274">
+      <c r="EB275">
         <v>132</v>
       </c>
-      <c r="EC274">
+      <c r="EC275">
         <v>133</v>
       </c>
-      <c r="ED274">
+      <c r="ED275">
         <v>134</v>
       </c>
-      <c r="EE274">
+      <c r="EE275">
         <v>135</v>
       </c>
-      <c r="EF274">
+      <c r="EF275">
         <v>136</v>
       </c>
-      <c r="EG274">
+      <c r="EG275">
         <v>137</v>
       </c>
-      <c r="EH274">
+      <c r="EH275">
         <v>138</v>
       </c>
-      <c r="EI274">
+      <c r="EI275">
         <v>139</v>
       </c>
-      <c r="EJ274">
+      <c r="EJ275">
         <v>140</v>
       </c>
-      <c r="EK274">
+      <c r="EK275">
         <v>141</v>
       </c>
-      <c r="EL274">
+      <c r="EL275">
         <v>142</v>
       </c>
-      <c r="EM274">
+      <c r="EM275">
         <v>143</v>
       </c>
-      <c r="EN274">
+      <c r="EN275">
         <v>144</v>
       </c>
-      <c r="EO274">
+      <c r="EO275">
         <v>145</v>
       </c>
-      <c r="EP274">
+      <c r="EP275">
         <v>146</v>
       </c>
-      <c r="EQ274">
+      <c r="EQ275">
         <v>147</v>
       </c>
-      <c r="ER274">
+      <c r="ER275">
         <v>148</v>
       </c>
-      <c r="ES274">
+      <c r="ES275">
         <v>149</v>
       </c>
-      <c r="ET274">
+      <c r="ET275">
         <v>150</v>
       </c>
-      <c r="EU274">
+      <c r="EU275">
         <v>151</v>
       </c>
-      <c r="EV274">
+      <c r="EV275">
         <v>152</v>
       </c>
-      <c r="EW274">
+      <c r="EW275">
         <v>153</v>
       </c>
-      <c r="EX274">
+      <c r="EX275">
         <v>154</v>
       </c>
-      <c r="EY274">
+      <c r="EY275">
         <v>155</v>
       </c>
-      <c r="EZ274">
+      <c r="EZ275">
         <v>156</v>
       </c>
-      <c r="FA274">
+      <c r="FA275">
         <v>157</v>
       </c>
-      <c r="FB274">
+      <c r="FB275">
         <v>158</v>
       </c>
-      <c r="FC274">
+      <c r="FC275">
         <v>159</v>
       </c>
-      <c r="FD274">
+      <c r="FD275">
         <v>160</v>
       </c>
-      <c r="FE274">
+      <c r="FE275">
         <v>161</v>
       </c>
-      <c r="FF274">
+      <c r="FF275">
         <v>162</v>
       </c>
-      <c r="FG274">
+      <c r="FG275">
         <v>163</v>
       </c>
-      <c r="FH274">
+      <c r="FH275">
         <v>164</v>
       </c>
-      <c r="FI274">
+      <c r="FI275">
         <v>165</v>
       </c>
-      <c r="FJ274">
+      <c r="FJ275">
         <v>166</v>
       </c>
-      <c r="FK274">
+      <c r="FK275">
         <v>167</v>
       </c>
-      <c r="FL274">
+      <c r="FL275">
         <v>168</v>
       </c>
-      <c r="FM274">
+      <c r="FM275">
         <v>169</v>
       </c>
-      <c r="FN274">
+      <c r="FN275">
         <v>170</v>
       </c>
-      <c r="FO274">
+      <c r="FO275">
         <v>171</v>
       </c>
-      <c r="FP274">
+      <c r="FP275">
         <v>172</v>
       </c>
-      <c r="FQ274">
+      <c r="FQ275">
         <v>173</v>
       </c>
-      <c r="FR274">
+      <c r="FR275">
         <v>174</v>
       </c>
-      <c r="FS274">
+      <c r="FS275">
         <v>175</v>
       </c>
-      <c r="FT274">
+      <c r="FT275">
         <v>176</v>
       </c>
-      <c r="FU274">
+      <c r="FU275">
         <v>177</v>
       </c>
-      <c r="FV274">
+      <c r="FV275">
         <v>178</v>
       </c>
-      <c r="FW274">
+      <c r="FW275">
         <v>179</v>
       </c>
-      <c r="FX274">
+      <c r="FX275">
         <v>180</v>
       </c>
-      <c r="FY274">
+      <c r="FY275">
         <v>181</v>
       </c>
-      <c r="FZ274">
+      <c r="FZ275">
         <v>182</v>
       </c>
-      <c r="GA274">
+      <c r="GA275">
         <v>183</v>
       </c>
-      <c r="GB274">
+      <c r="GB275">
         <v>184</v>
       </c>
-      <c r="GC274">
+      <c r="GC275">
         <v>185</v>
       </c>
-      <c r="GD274">
+      <c r="GD275">
         <v>186</v>
       </c>
-      <c r="GE274">
+      <c r="GE275">
         <v>187</v>
       </c>
-      <c r="GF274">
+      <c r="GF275">
         <v>188</v>
       </c>
-      <c r="GG274">
+      <c r="GG275">
         <v>189</v>
       </c>
-      <c r="GH274">
+      <c r="GH275">
         <v>190</v>
       </c>
-      <c r="GI274">
+      <c r="GI275">
         <v>191</v>
       </c>
-      <c r="GJ274">
+      <c r="GJ275">
         <v>192</v>
       </c>
-      <c r="GK274">
+      <c r="GK275">
         <v>193</v>
       </c>
-      <c r="GL274">
+      <c r="GL275">
         <v>194</v>
       </c>
-      <c r="GM274">
+      <c r="GM275">
         <v>195</v>
       </c>
-      <c r="GN274">
+      <c r="GN275">
         <v>196</v>
       </c>
-      <c r="GO274">
+      <c r="GO275">
         <v>197</v>
       </c>
-      <c r="GP274">
+      <c r="GP275">
         <v>198</v>
       </c>
-      <c r="GQ274">
+      <c r="GQ275">
         <v>199</v>
       </c>
-      <c r="GR274">
+      <c r="GR275">
         <v>200</v>
       </c>
-      <c r="GS274">
+      <c r="GS275">
         <v>201</v>
       </c>
-      <c r="GT274">
+      <c r="GT275">
         <v>202</v>
       </c>
-      <c r="GU274">
+      <c r="GU275">
         <v>203</v>
       </c>
-      <c r="GV274">
+      <c r="GV275">
         <v>204</v>
       </c>
-      <c r="GW274">
+      <c r="GW275">
         <v>205</v>
       </c>
-      <c r="GX274">
+      <c r="GX275">
         <v>206</v>
       </c>
-      <c r="GY274">
+      <c r="GY275">
         <v>207</v>
       </c>
-      <c r="GZ274">
+      <c r="GZ275">
         <v>208</v>
       </c>
-      <c r="HA274">
+      <c r="HA275">
         <v>209</v>
       </c>
-      <c r="HB274">
+      <c r="HB275">
         <v>210</v>
       </c>
-      <c r="HC274">
+      <c r="HC275">
         <v>211</v>
       </c>
-      <c r="HD274">
+      <c r="HD275">
         <v>212</v>
       </c>
-      <c r="HE274">
+      <c r="HE275">
         <v>213</v>
       </c>
-      <c r="HF274">
+      <c r="HF275">
         <v>214</v>
       </c>
-      <c r="HG274">
+      <c r="HG275">
         <v>215</v>
       </c>
-      <c r="HH274">
+      <c r="HH275">
         <v>216</v>
       </c>
-      <c r="HI274">
+      <c r="HI275">
         <v>217</v>
       </c>
-      <c r="HJ274">
+      <c r="HJ275">
         <v>218</v>
       </c>
-      <c r="HK274">
+      <c r="HK275">
         <v>219</v>
       </c>
-      <c r="HL274">
+      <c r="HL275">
         <v>220</v>
       </c>
-      <c r="HM274">
+      <c r="HM275">
         <v>221</v>
       </c>
-      <c r="HN274">
+      <c r="HN275">
         <v>222</v>
       </c>
-      <c r="HO274">
+      <c r="HO275">
         <v>223</v>
       </c>
-      <c r="HP274">
+      <c r="HP275">
         <v>224</v>
       </c>
-      <c r="HQ274">
+      <c r="HQ275">
         <v>225</v>
       </c>
-      <c r="HR274">
+      <c r="HR275">
         <v>226</v>
       </c>
-      <c r="HS274">
+      <c r="HS275">
         <v>227</v>
       </c>
-      <c r="HT274">
+      <c r="HT275">
         <v>228</v>
       </c>
-      <c r="HU274">
+      <c r="HU275">
         <v>229</v>
       </c>
-      <c r="HV274">
+      <c r="HV275">
         <v>230</v>
       </c>
-      <c r="HW274">
+      <c r="HW275">
         <v>231</v>
       </c>
-      <c r="HX274">
+      <c r="HX275">
         <v>232</v>
       </c>
-      <c r="HY274">
+      <c r="HY275">
         <v>233</v>
       </c>
-      <c r="HZ274">
+      <c r="HZ275">
         <v>234</v>
       </c>
-      <c r="IA274">
+      <c r="IA275">
         <v>235</v>
       </c>
-      <c r="IB274">
+      <c r="IB275">
         <v>236</v>
       </c>
-      <c r="IC274">
+      <c r="IC275">
         <v>237</v>
       </c>
-      <c r="ID274">
+      <c r="ID275">
         <v>238</v>
       </c>
-      <c r="IE274">
+      <c r="IE275">
         <v>239</v>
       </c>
-      <c r="IF274">
+      <c r="IF275">
         <v>240</v>
       </c>
-      <c r="IG274">
+      <c r="IG275">
         <v>241</v>
       </c>
-      <c r="IH274">
+      <c r="IH275">
         <v>242</v>
       </c>
-      <c r="II274">
+      <c r="II275">
         <v>243</v>
       </c>
-      <c r="IJ274">
+      <c r="IJ275">
         <v>244</v>
       </c>
-      <c r="IK274">
+      <c r="IK275">
         <v>245</v>
       </c>
-      <c r="IL274">
+      <c r="IL275">
         <v>246</v>
       </c>
-      <c r="IM274">
+      <c r="IM275">
         <v>247</v>
       </c>
-      <c r="IN274">
+      <c r="IN275">
         <v>248</v>
       </c>
-      <c r="IO274">
+      <c r="IO275">
         <v>249</v>
       </c>
-      <c r="IP274">
+      <c r="IP275">
         <v>250</v>
       </c>
-      <c r="IQ274">
+      <c r="IQ275">
         <v>251</v>
       </c>
-      <c r="IR274">
+      <c r="IR275">
         <v>252</v>
       </c>
-      <c r="IS274">
+      <c r="IS275">
         <v>253</v>
       </c>
-      <c r="IT274">
+      <c r="IT275">
         <v>254</v>
       </c>
-      <c r="IU274">
+      <c r="IU275">
         <v>255</v>
       </c>
-      <c r="IV274">
+      <c r="IV275">
         <v>256</v>
       </c>
-      <c r="IW274">
+      <c r="IW275">
         <v>257</v>
       </c>
-      <c r="IX274">
+      <c r="IX275">
         <v>258</v>
       </c>
-      <c r="IY274">
+      <c r="IY275">
         <v>259</v>
       </c>
-      <c r="IZ274">
+      <c r="IZ275">
         <v>260</v>
       </c>
-      <c r="JA274">
+      <c r="JA275">
         <v>261</v>
       </c>
-      <c r="JB274">
+      <c r="JB275">
         <v>262</v>
       </c>
-      <c r="JC274">
+      <c r="JC275">
         <v>263</v>
       </c>
-      <c r="JD274">
+      <c r="JD275">
         <v>264</v>
       </c>
-      <c r="JE274">
+      <c r="JE275">
         <v>265</v>
       </c>
-      <c r="JF274">
+      <c r="JF275">
         <v>266</v>
       </c>
-      <c r="JG274">
+      <c r="JG275">
         <v>267</v>
       </c>
-      <c r="JH274">
+      <c r="JH275">
         <v>268</v>
       </c>
-      <c r="JI274">
+      <c r="JI275">
         <v>269</v>
       </c>
-      <c r="JJ274">
+      <c r="JJ275">
         <v>270</v>
       </c>
-      <c r="JK274">
+      <c r="JK275">
         <v>271</v>
       </c>
-      <c r="JL274">
+      <c r="JL275">
         <v>272</v>
       </c>
-      <c r="JM274">
+      <c r="JM275">
         <v>273</v>
       </c>
-      <c r="JN274">
+      <c r="JN275">
         <v>274</v>
       </c>
-      <c r="JO274">
+      <c r="JO275">
         <v>275</v>
       </c>
-      <c r="JP274">
+      <c r="JP275">
         <v>276</v>
       </c>
-      <c r="JQ274">
+      <c r="JQ275">
         <v>277</v>
       </c>
-      <c r="JR274">
+      <c r="JR275">
         <v>278</v>
       </c>
-      <c r="JS274">
+      <c r="JS275">
         <v>279</v>
       </c>
-      <c r="JT274">
+      <c r="JT275">
         <v>280</v>
       </c>
-      <c r="JU274">
+      <c r="JU275">
         <v>281</v>
       </c>
-      <c r="JV274">
+      <c r="JV275">
         <v>282</v>
       </c>
-      <c r="JW274">
+      <c r="JW275">
         <v>283</v>
       </c>
-      <c r="JX274">
+      <c r="JX275">
         <v>284</v>
       </c>
-      <c r="JY274">
+      <c r="JY275">
         <v>285</v>
       </c>
-      <c r="JZ274">
+      <c r="JZ275">
         <v>286</v>
       </c>
-      <c r="KA274">
+      <c r="KA275">
         <v>287</v>
       </c>
-      <c r="KB274">
+      <c r="KB275">
         <v>288</v>
       </c>
-      <c r="KC274">
+      <c r="KC275">
         <v>289</v>
       </c>
-      <c r="KD274">
+      <c r="KD275">
         <v>290</v>
       </c>
-      <c r="KE274">
+      <c r="KE275">
         <v>291</v>
       </c>
-      <c r="KF274">
+      <c r="KF275">
         <v>292</v>
       </c>
-      <c r="KG274">
+      <c r="KG275">
         <v>293</v>
       </c>
-      <c r="KH274">
+      <c r="KH275">
         <v>294</v>
       </c>
-      <c r="KI274">
+      <c r="KI275">
         <v>295</v>
       </c>
-      <c r="KJ274">
+      <c r="KJ275">
         <v>296</v>
       </c>
-      <c r="KK274">
+      <c r="KK275">
         <v>297</v>
       </c>
-      <c r="KL274">
+      <c r="KL275">
         <v>298</v>
       </c>
-      <c r="KM274">
+      <c r="KM275">
         <v>299</v>
       </c>
-      <c r="KN274">
+      <c r="KN275">
         <v>300</v>
       </c>
-      <c r="KO274">
+      <c r="KO275">
         <v>301</v>
       </c>
-      <c r="KP274">
+      <c r="KP275">
         <v>302</v>
       </c>
-      <c r="KQ274">
+      <c r="KQ275">
         <v>303</v>
       </c>
-      <c r="KR274">
+      <c r="KR275">
         <v>304</v>
       </c>
-      <c r="KS274">
+      <c r="KS275">
         <v>305</v>
       </c>
-      <c r="KT274">
+      <c r="KT275">
         <v>306</v>
       </c>
-      <c r="KU274">
+      <c r="KU275">
         <v>307</v>
       </c>
-      <c r="KV274">
+      <c r="KV275">
         <v>308</v>
       </c>
-      <c r="KW274">
+      <c r="KW275">
         <v>309</v>
       </c>
-      <c r="KX274">
+      <c r="KX275">
         <v>310</v>
       </c>
-      <c r="KY274">
+      <c r="KY275">
         <v>311</v>
       </c>
-      <c r="KZ274">
+      <c r="KZ275">
         <v>312</v>
       </c>
-      <c r="LA274">
+      <c r="LA275">
         <v>313</v>
       </c>
-      <c r="LB274">
+      <c r="LB275">
         <v>314</v>
       </c>
-      <c r="LC274">
+      <c r="LC275">
         <v>315</v>
       </c>
-      <c r="LD274">
+      <c r="LD275">
         <v>316</v>
       </c>
-      <c r="LE274">
+      <c r="LE275">
         <v>317</v>
       </c>
-      <c r="LF274">
+      <c r="LF275">
         <v>318</v>
       </c>
-      <c r="LG274">
+      <c r="LG275">
         <v>319</v>
       </c>
-      <c r="LH274">
+      <c r="LH275">
         <v>320</v>
       </c>
-      <c r="LI274">
+      <c r="LI275">
         <v>321</v>
       </c>
-      <c r="LJ274">
+      <c r="LJ275">
         <v>322</v>
       </c>
-      <c r="LK274">
+      <c r="LK275">
         <v>323</v>
       </c>
-      <c r="LL274">
+      <c r="LL275">
         <v>324</v>
       </c>
-      <c r="LM274">
+      <c r="LM275">
         <v>325</v>
       </c>
-      <c r="LN274">
+      <c r="LN275">
         <v>326</v>
       </c>
-      <c r="LO274">
+      <c r="LO275">
         <v>327</v>
       </c>
-      <c r="LP274">
+      <c r="LP275">
         <v>328</v>
       </c>
-      <c r="LQ274">
+      <c r="LQ275">
         <v>329</v>
       </c>
-      <c r="LR274">
+      <c r="LR275">
         <v>330</v>
       </c>
-      <c r="LS274">
+      <c r="LS275">
         <v>331</v>
       </c>
-      <c r="LT274">
+      <c r="LT275">
         <v>332</v>
       </c>
-      <c r="LU274">
+      <c r="LU275">
         <v>333</v>
       </c>
-      <c r="LV274">
+      <c r="LV275">
         <v>334</v>
       </c>
-      <c r="LW274">
+      <c r="LW275">
         <v>335</v>
       </c>
-      <c r="LX274">
+      <c r="LX275">
         <v>336</v>
       </c>
-      <c r="LY274">
+      <c r="LY275">
         <v>337</v>
       </c>
-      <c r="LZ274">
+      <c r="LZ275">
         <v>338</v>
       </c>
-      <c r="MA274">
+      <c r="MA275">
         <v>339</v>
       </c>
-      <c r="MB274">
+      <c r="MB275">
         <v>340</v>
       </c>
-      <c r="MC274">
+      <c r="MC275">
         <v>341</v>
       </c>
-      <c r="MD274">
+      <c r="MD275">
         <v>342</v>
       </c>
-      <c r="ME274">
+      <c r="ME275">
         <v>343</v>
       </c>
-      <c r="MF274">
+      <c r="MF275">
         <v>344</v>
       </c>
-      <c r="MG274">
+      <c r="MG275">
         <v>345</v>
       </c>
-      <c r="MH274">
+      <c r="MH275">
         <v>346</v>
       </c>
-      <c r="MI274">
+      <c r="MI275">
         <v>347</v>
       </c>
-      <c r="MJ274">
+      <c r="MJ275">
         <v>348</v>
       </c>
-      <c r="MK274">
+      <c r="MK275">
         <v>349</v>
       </c>
-      <c r="ML274">
+      <c r="ML275">
         <v>350</v>
       </c>
-      <c r="MM274">
+      <c r="MM275">
         <v>351</v>
       </c>
-      <c r="MN274">
+      <c r="MN275">
         <v>352</v>
       </c>
-      <c r="MO274">
+      <c r="MO275">
         <v>353</v>
       </c>
-      <c r="MP274">
+      <c r="MP275">
         <v>354</v>
       </c>
-      <c r="MQ274">
+      <c r="MQ275">
         <v>355</v>
       </c>
-      <c r="MR274">
+      <c r="MR275">
         <v>356</v>
       </c>
-      <c r="MS274">
+      <c r="MS275">
         <v>357</v>
       </c>
-      <c r="MT274">
+      <c r="MT275">
         <v>358</v>
       </c>
-      <c r="MU274">
+      <c r="MU275">
         <v>359</v>
       </c>
-      <c r="MV274">
+      <c r="MV275">
         <v>360</v>
       </c>
-      <c r="MW274">
+      <c r="MW275">
         <v>361</v>
       </c>
-      <c r="MX274">
+      <c r="MX275">
         <v>362</v>
       </c>
-      <c r="MY274">
+      <c r="MY275">
         <v>363</v>
       </c>
-      <c r="MZ274">
+      <c r="MZ275">
         <v>364</v>
       </c>
-      <c r="NA274">
+      <c r="NA275">
         <v>365</v>
       </c>
-      <c r="NB274">
+      <c r="NB275">
         <v>366</v>
       </c>
-      <c r="NC274">
+      <c r="NC275">
         <v>367</v>
       </c>
-      <c r="ND274">
+      <c r="ND275">
         <v>368</v>
       </c>
-      <c r="NE274">
+      <c r="NE275">
         <v>369</v>
       </c>
-      <c r="NF274">
+      <c r="NF275">
         <v>370</v>
       </c>
-      <c r="NG274">
+      <c r="NG275">
         <v>371</v>
       </c>
-      <c r="NH274">
+      <c r="NH275">
         <v>372</v>
       </c>
-      <c r="NI274">
+      <c r="NI275">
         <v>373</v>
       </c>
-      <c r="NJ274">
+      <c r="NJ275">
         <v>374</v>
       </c>
-      <c r="NK274">
+      <c r="NK275">
         <v>375</v>
       </c>
-      <c r="NL274">
+      <c r="NL275">
         <v>376</v>
       </c>
-      <c r="NM274">
+      <c r="NM275">
         <v>377</v>
       </c>
-      <c r="NN274">
+      <c r="NN275">
         <v>378</v>
       </c>
-      <c r="NO274">
+      <c r="NO275">
         <v>379</v>
       </c>
-      <c r="NP274">
+      <c r="NP275">
         <v>380</v>
       </c>
-      <c r="NQ274">
+      <c r="NQ275">
         <v>381</v>
       </c>
-      <c r="NR274">
+      <c r="NR275">
         <v>382</v>
       </c>
-      <c r="NS274">
+      <c r="NS275">
         <v>383</v>
       </c>
-      <c r="NT274">
+      <c r="NT275">
         <v>384</v>
       </c>
-      <c r="NU274">
+      <c r="NU275">
         <v>385</v>
       </c>
-      <c r="NV274">
+      <c r="NV275">
         <v>386</v>
       </c>
-      <c r="NW274">
+      <c r="NW275">
         <v>387</v>
       </c>
-      <c r="NX274">
+      <c r="NX275">
         <v>388</v>
       </c>
-      <c r="NY274">
+      <c r="NY275">
         <v>389</v>
       </c>
-      <c r="NZ274">
+      <c r="NZ275">
         <v>390</v>
       </c>
-      <c r="OA274">
+      <c r="OA275">
         <v>391</v>
       </c>
-      <c r="OB274">
+      <c r="OB275">
         <v>392</v>
       </c>
-      <c r="OC274">
+      <c r="OC275">
         <v>393</v>
       </c>
-      <c r="OD274">
+      <c r="OD275">
         <v>394</v>
       </c>
-      <c r="OE274">
+      <c r="OE275">
         <v>395</v>
       </c>
-      <c r="OF274">
+      <c r="OF275">
         <v>396</v>
       </c>
-      <c r="OG274">
+      <c r="OG275">
         <v>397</v>
       </c>
-      <c r="OH274">
+      <c r="OH275">
         <v>398</v>
       </c>
-      <c r="OI274">
+      <c r="OI275">
         <v>399</v>
       </c>
-      <c r="OJ274">
+      <c r="OJ275">
         <v>400</v>
       </c>
-      <c r="OK274">
+      <c r="OK275">
         <v>401</v>
       </c>
-      <c r="OL274">
+      <c r="OL275">
         <v>402</v>
       </c>
-      <c r="OM274">
+      <c r="OM275">
         <v>403</v>
       </c>
-      <c r="ON274">
+      <c r="ON275">
         <v>404</v>
       </c>
-      <c r="OO274">
+      <c r="OO275">
         <v>405</v>
       </c>
-      <c r="OP274">
+      <c r="OP275">
         <v>406</v>
       </c>
-      <c r="OQ274">
+      <c r="OQ275">
         <v>407</v>
       </c>
-      <c r="OR274">
+      <c r="OR275">
         <v>408</v>
       </c>
-      <c r="OS274">
+      <c r="OS275">
         <v>409</v>
       </c>
-      <c r="OT274">
+      <c r="OT275">
         <v>410</v>
       </c>
-      <c r="OU274">
+      <c r="OU275">
         <v>411</v>
       </c>
-      <c r="OV274">
+      <c r="OV275">
         <v>412</v>
       </c>
-      <c r="OW274">
+      <c r="OW275">
         <v>413</v>
       </c>
-      <c r="OX274">
+      <c r="OX275">
         <v>414</v>
       </c>
-      <c r="OY274">
+      <c r="OY275">
         <v>415</v>
       </c>
-      <c r="OZ274">
+      <c r="OZ275">
         <v>416</v>
       </c>
-      <c r="PA274">
+      <c r="PA275">
         <v>417</v>
       </c>
-      <c r="PB274">
+      <c r="PB275">
         <v>418</v>
       </c>
-      <c r="PC274">
+      <c r="PC275">
         <v>419</v>
       </c>
-      <c r="PD274">
+      <c r="PD275">
         <v>420</v>
       </c>
-      <c r="PE274">
+      <c r="PE275">
         <v>421</v>
       </c>
-      <c r="PF274">
+      <c r="PF275">
         <v>422</v>
       </c>
-      <c r="PG274">
+      <c r="PG275">
         <v>423</v>
       </c>
-      <c r="PH274">
+      <c r="PH275">
         <v>424</v>
       </c>
-      <c r="PI274">
+      <c r="PI275">
         <v>425</v>
       </c>
-      <c r="PJ274">
+      <c r="PJ275">
         <v>426</v>
       </c>
-      <c r="PK274">
+      <c r="PK275">
         <v>427</v>
       </c>
-      <c r="PL274">
+      <c r="PL275">
         <v>428</v>
       </c>
-      <c r="PM274">
+      <c r="PM275">
         <v>429</v>
       </c>
-      <c r="PN274">
+      <c r="PN275">
         <v>430</v>
       </c>
-      <c r="PO274">
+      <c r="PO275">
         <v>431</v>
       </c>
-      <c r="PP274">
+      <c r="PP275">
         <v>432</v>
       </c>
-      <c r="PQ274">
+      <c r="PQ275">
         <v>433</v>
       </c>
-      <c r="PR274">
+      <c r="PR275">
         <v>434</v>
       </c>
-      <c r="PS274">
+      <c r="PS275">
         <v>435</v>
       </c>
-      <c r="PT274">
+      <c r="PT275">
         <v>436</v>
       </c>
-      <c r="PU274">
+      <c r="PU275">
         <v>437</v>
       </c>
-      <c r="PV274">
+      <c r="PV275">
         <v>438</v>
       </c>
-      <c r="PW274">
+      <c r="PW275">
         <v>439</v>
       </c>
-      <c r="PX274">
+      <c r="PX275">
         <v>440</v>
       </c>
-      <c r="PY274">
+      <c r="PY275">
         <v>441</v>
       </c>
-      <c r="PZ274">
+      <c r="PZ275">
         <v>442</v>
       </c>
-      <c r="QA274">
+      <c r="QA275">
         <v>443</v>
       </c>
-      <c r="QB274">
+      <c r="QB275">
         <v>444</v>
       </c>
-      <c r="QC274">
+      <c r="QC275">
         <v>445</v>
       </c>
-      <c r="QD274">
+      <c r="QD275">
         <v>446</v>
       </c>
-      <c r="QE274">
+      <c r="QE275">
         <v>447</v>
       </c>
-      <c r="QF274">
+      <c r="QF275">
         <v>448</v>
       </c>
-      <c r="QG274">
+      <c r="QG275">
         <v>449</v>
       </c>
-      <c r="QH274">
+      <c r="QH275">
         <v>450</v>
       </c>
-      <c r="QI274">
+      <c r="QI275">
         <v>451</v>
       </c>
-      <c r="QJ274">
+      <c r="QJ275">
         <v>452</v>
       </c>
-      <c r="QK274">
+      <c r="QK275">
         <v>453</v>
       </c>
-      <c r="QL274">
+      <c r="QL275">
         <v>454</v>
       </c>
-      <c r="QM274">
+      <c r="QM275">
         <v>455</v>
       </c>
-      <c r="QN274">
+      <c r="QN275">
         <v>456</v>
       </c>
-      <c r="QO274">
+      <c r="QO275">
         <v>457</v>
       </c>
-      <c r="QP274">
+      <c r="QP275">
         <v>458</v>
       </c>
-      <c r="QQ274">
+      <c r="QQ275">
         <v>459</v>
       </c>
-      <c r="QR274">
+      <c r="QR275">
         <v>460</v>
       </c>
-      <c r="QS274">
+      <c r="QS275">
         <v>461</v>
       </c>
-      <c r="QT274">
+      <c r="QT275">
         <v>462</v>
       </c>
-      <c r="QU274">
+      <c r="QU275">
         <v>463</v>
       </c>
-      <c r="QV274">
+      <c r="QV275">
         <v>464</v>
       </c>
-      <c r="QW274">
+      <c r="QW275">
         <v>465</v>
       </c>
-      <c r="QX274">
+      <c r="QX275">
         <v>466</v>
       </c>
-      <c r="QY274">
+      <c r="QY275">
         <v>467</v>
       </c>
-      <c r="QZ274">
+      <c r="QZ275">
         <v>468</v>
       </c>
-      <c r="RA274">
+      <c r="RA275">
         <v>469</v>
       </c>
-      <c r="RB274">
+      <c r="RB275">
         <v>470</v>
       </c>
-      <c r="RC274">
+      <c r="RC275">
         <v>471</v>
       </c>
-      <c r="RD274">
+      <c r="RD275">
         <v>472</v>
       </c>
-      <c r="RE274">
+      <c r="RE275">
         <v>473</v>
       </c>
-      <c r="RF274">
+      <c r="RF275">
         <v>474</v>
       </c>
-      <c r="RG274">
+      <c r="RG275">
         <v>475</v>
       </c>
-      <c r="RH274">
+      <c r="RH275">
         <v>476</v>
       </c>
-      <c r="RI274">
+      <c r="RI275">
         <v>477</v>
       </c>
-      <c r="RJ274">
+      <c r="RJ275">
         <v>478</v>
       </c>
-      <c r="RK274">
+      <c r="RK275">
         <v>479</v>
       </c>
-      <c r="RL274">
+      <c r="RL275">
         <v>480</v>
       </c>
-      <c r="RM274">
+      <c r="RM275">
         <v>481</v>
       </c>
-      <c r="RN274">
+      <c r="RN275">
         <v>482</v>
       </c>
-      <c r="RO274">
+      <c r="RO275">
         <v>483</v>
       </c>
-      <c r="RP274">
+      <c r="RP275">
         <v>484</v>
       </c>
-      <c r="RQ274">
+      <c r="RQ275">
         <v>485</v>
       </c>
-      <c r="RR274">
+      <c r="RR275">
         <v>486</v>
       </c>
-      <c r="RS274">
+      <c r="RS275">
         <v>487</v>
       </c>
-      <c r="RT274">
+      <c r="RT275">
         <v>488</v>
       </c>
-      <c r="RU274">
+      <c r="RU275">
         <v>489</v>
       </c>
-      <c r="RV274">
+      <c r="RV275">
         <v>490</v>
       </c>
-      <c r="RW274">
+      <c r="RW275">
         <v>491</v>
       </c>
-      <c r="RX274">
+      <c r="RX275">
         <v>492</v>
       </c>
-      <c r="RY274">
+      <c r="RY275">
         <v>493</v>
       </c>
-      <c r="RZ274">
+      <c r="RZ275">
         <v>494</v>
       </c>
-      <c r="SA274">
+      <c r="SA275">
         <v>495</v>
       </c>
-      <c r="SB274">
+      <c r="SB275">
         <v>496</v>
       </c>
-      <c r="SC274">
+      <c r="SC275">
         <v>497</v>
       </c>
-      <c r="SD274">
+      <c r="SD275">
         <v>498</v>
       </c>
-      <c r="SE274">
+      <c r="SE275">
         <v>499</v>
       </c>
-      <c r="SF274">
+      <c r="SF275">
         <v>500</v>
       </c>
-      <c r="SG274">
+      <c r="SG275">
         <v>501</v>
       </c>
-      <c r="SH274">
+      <c r="SH275">
         <v>502</v>
       </c>
-      <c r="SI274">
+      <c r="SI275">
         <v>503</v>
       </c>
-      <c r="SJ274">
+      <c r="SJ275">
         <v>504</v>
       </c>
-      <c r="SK274">
+      <c r="SK275">
         <v>505</v>
       </c>
-      <c r="SL274">
+      <c r="SL275">
         <v>506</v>
       </c>
-      <c r="SM274">
+      <c r="SM275">
         <v>507</v>
       </c>
-      <c r="SN274">
+      <c r="SN275">
         <v>508</v>
       </c>
-      <c r="SO274">
+      <c r="SO275">
         <v>509</v>
       </c>
-      <c r="SP274">
+      <c r="SP275">
         <v>510</v>
       </c>
-      <c r="SQ274">
+      <c r="SQ275">
         <v>511</v>
       </c>
-      <c r="SR274">
+      <c r="SR275">
         <v>512</v>
       </c>
-      <c r="SS274">
+      <c r="SS275">
         <v>513</v>
       </c>
-      <c r="ST274">
+      <c r="ST275">
         <v>514</v>
       </c>
-      <c r="SU274">
+      <c r="SU275">
         <v>515</v>
       </c>
-      <c r="SV274">
+      <c r="SV275">
         <v>516</v>
       </c>
-      <c r="SW274">
+      <c r="SW275">
         <v>517</v>
       </c>
-      <c r="SX274">
+      <c r="SX275">
         <v>518</v>
       </c>
-      <c r="SY274">
+      <c r="SY275">
         <v>519</v>
       </c>
-      <c r="SZ274">
+      <c r="SZ275">
         <v>520</v>
       </c>
-      <c r="TA274">
+      <c r="TA275">
         <v>521</v>
       </c>
-      <c r="TB274">
+      <c r="TB275">
         <v>522</v>
       </c>
-      <c r="TC274">
+      <c r="TC275">
         <v>523</v>
       </c>
-      <c r="TD274">
+      <c r="TD275">
         <v>524</v>
       </c>
-      <c r="TE274">
+      <c r="TE275">
         <v>525</v>
       </c>
-      <c r="TF274">
+      <c r="TF275">
         <v>526</v>
       </c>
-      <c r="TG274">
+      <c r="TG275">
         <v>527</v>
       </c>
-      <c r="TH274">
+      <c r="TH275">
         <v>528</v>
       </c>
-      <c r="TI274">
+      <c r="TI275">
         <v>529</v>
       </c>
-      <c r="TJ274">
+      <c r="TJ275">
         <v>530</v>
       </c>
-      <c r="TK274">
+      <c r="TK275">
         <v>531</v>
       </c>
-      <c r="TL274">
+      <c r="TL275">
         <v>532</v>
       </c>
-      <c r="TM274">
+      <c r="TM275">
         <v>533</v>
       </c>
-      <c r="TN274">
+      <c r="TN275">
         <v>534</v>
       </c>
-      <c r="TO274">
+      <c r="TO275">
         <v>535</v>
       </c>
-      <c r="TP274">
+      <c r="TP275">
         <v>536</v>
       </c>
-      <c r="TQ274">
+      <c r="TQ275">
         <v>537</v>
       </c>
-      <c r="TR274">
+      <c r="TR275">
         <v>538</v>
       </c>
-      <c r="TS274">
+      <c r="TS275">
         <v>539</v>
       </c>
-      <c r="TT274">
+      <c r="TT275">
         <v>540</v>
       </c>
-      <c r="TU274">
+      <c r="TU275">
         <v>541</v>
       </c>
-      <c r="TV274">
+      <c r="TV275">
         <v>542</v>
       </c>
-      <c r="TW274">
+      <c r="TW275">
         <v>543</v>
       </c>
-      <c r="TX274">
+      <c r="TX275">
         <v>544</v>
       </c>
-      <c r="TY274">
+      <c r="TY275">
         <v>545</v>
       </c>
-      <c r="TZ274">
+      <c r="TZ275">
         <v>546</v>
       </c>
-      <c r="UA274">
+      <c r="UA275">
         <v>547</v>
       </c>
-      <c r="UB274">
+      <c r="UB275">
         <v>548</v>
       </c>
-      <c r="UC274">
+      <c r="UC275">
         <v>549</v>
       </c>
-      <c r="UD274">
+      <c r="UD275">
         <v>550</v>
       </c>
-      <c r="UE274">
+      <c r="UE275">
         <v>551</v>
       </c>
-      <c r="UF274">
+      <c r="UF275">
         <v>552</v>
       </c>
-      <c r="UG274">
+      <c r="UG275">
         <v>553</v>
       </c>
-      <c r="UH274">
+      <c r="UH275">
         <v>554</v>
       </c>
-      <c r="UI274">
+      <c r="UI275">
         <v>555</v>
       </c>
-      <c r="UJ274">
+      <c r="UJ275">
         <v>556</v>
       </c>
-      <c r="UK274">
+      <c r="UK275">
         <v>557</v>
       </c>
-      <c r="UL274">
+      <c r="UL275">
         <v>558</v>
       </c>
-      <c r="UM274">
+      <c r="UM275">
         <v>559</v>
       </c>
-      <c r="UN274">
+      <c r="UN275">
         <v>560</v>
       </c>
-      <c r="UO274">
+      <c r="UO275">
         <v>561</v>
       </c>
-      <c r="UP274">
+      <c r="UP275">
         <v>562</v>
       </c>
-      <c r="UQ274">
+      <c r="UQ275">
         <v>563</v>
       </c>
-      <c r="UR274">
+      <c r="UR275">
         <v>564</v>
       </c>
-      <c r="US274">
+      <c r="US275">
         <v>565</v>
       </c>
-      <c r="UT274">
+      <c r="UT275">
         <v>566</v>
       </c>
-      <c r="UU274">
+      <c r="UU275">
         <v>567</v>
       </c>
-      <c r="UV274">
+      <c r="UV275">
         <v>568</v>
       </c>
-      <c r="UW274">
+      <c r="UW275">
         <v>569</v>
       </c>
-      <c r="UX274">
+      <c r="UX275">
         <v>570</v>
       </c>
-      <c r="UY274">
+      <c r="UY275">
         <v>571</v>
       </c>
-      <c r="UZ274">
+      <c r="UZ275">
         <v>572</v>
       </c>
-      <c r="VA274">
+      <c r="VA275">
         <v>573</v>
       </c>
-      <c r="VB274">
+      <c r="VB275">
         <v>574</v>
       </c>
-      <c r="VC274">
+      <c r="VC275">
         <v>575</v>
       </c>
-      <c r="VD274">
+      <c r="VD275">
         <v>576</v>
       </c>
-      <c r="VE274">
+      <c r="VE275">
         <v>577</v>
       </c>
-      <c r="VF274">
+      <c r="VF275">
         <v>578</v>
       </c>
-      <c r="VG274">
+      <c r="VG275">
         <v>579</v>
       </c>
-      <c r="VH274">
+      <c r="VH275">
         <v>580</v>
       </c>
-      <c r="VI274">
+      <c r="VI275">
         <v>581</v>
       </c>
-      <c r="VJ274">
+      <c r="VJ275">
         <v>582</v>
       </c>
-      <c r="VK274">
+      <c r="VK275">
         <v>583</v>
       </c>
-      <c r="VL274">
+      <c r="VL275">
         <v>584</v>
       </c>
-      <c r="VM274">
+      <c r="VM275">
         <v>585</v>
       </c>
-      <c r="VN274">
+      <c r="VN275">
         <v>586</v>
       </c>
-      <c r="VO274">
+      <c r="VO275">
         <v>587</v>
       </c>
-      <c r="VP274">
+      <c r="VP275">
         <v>588</v>
       </c>
-      <c r="VQ274">
+      <c r="VQ275">
         <v>589</v>
       </c>
-      <c r="VR274">
+      <c r="VR275">
         <v>590</v>
       </c>
-      <c r="VS274">
+      <c r="VS275">
         <v>591</v>
       </c>
-      <c r="VT274">
+      <c r="VT275">
         <v>592</v>
       </c>
-      <c r="VU274">
+      <c r="VU275">
         <v>593</v>
       </c>
-      <c r="VV274">
+      <c r="VV275">
         <v>594</v>
       </c>
-      <c r="VW274">
+      <c r="VW275">
         <v>595</v>
       </c>
-      <c r="VX274">
+      <c r="VX275">
         <v>596</v>
       </c>
-      <c r="VY274">
+      <c r="VY275">
         <v>597</v>
       </c>
-      <c r="VZ274">
+      <c r="VZ275">
         <v>598</v>
       </c>
-      <c r="WA274">
+      <c r="WA275">
         <v>599</v>
       </c>
-      <c r="WB274">
+      <c r="WB275">
         <v>600</v>
       </c>
     </row>
-    <row r="275" spans="1:600" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="276" spans="1:600" x14ac:dyDescent="0.55000000000000004">
-      <c r="A276" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="278" spans="1:600" x14ac:dyDescent="0.55000000000000004">
-      <c r="A278" s="4"/>
-      <c r="B278" s="5" t="s">
-        <v>88</v>
+    <row r="276" spans="1:600" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="277" spans="1:600" x14ac:dyDescent="0.55000000000000004">
+      <c r="A277" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="279" spans="1:600" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="4"/>
       <c r="B279" s="5" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="280" spans="1:600" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="4"/>
-      <c r="B280" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="282" spans="1:600" x14ac:dyDescent="0.55000000000000004">
-      <c r="A282" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="284" spans="1:600" x14ac:dyDescent="0.55000000000000004">
-      <c r="A284" s="5" t="s">
-        <v>69</v>
+      <c r="B280" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="281" spans="1:600" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281" s="4"/>
+      <c r="B281" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="283" spans="1:600" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="285" spans="1:600" x14ac:dyDescent="0.55000000000000004">
-      <c r="A285" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="287" spans="1:600" x14ac:dyDescent="0.55000000000000004">
-      <c r="A287" t="s">
+      <c r="A285" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="286" spans="1:600" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="288" spans="1:600" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288" t="s">
+        <v>8</v>
+      </c>
+      <c r="B288" t="s">
         <v>9</v>
       </c>
-      <c r="B287" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="288" spans="1:600" x14ac:dyDescent="0.55000000000000004">
-      <c r="A288">
-        <v>1</v>
-      </c>
-      <c r="B288" s="4"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
-        <f>A288+1/3+1/100000000</f>
-        <v>1.3333333433333332</v>
+        <v>1</v>
       </c>
       <c r="B289" s="4"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
-        <f t="shared" ref="A290:A302" si="4">A289+1/3+1/100000000</f>
-        <v>1.6666666866666664</v>
+        <f>A289+1/3+1/100000000</f>
+        <v>1.3333333433333332</v>
       </c>
       <c r="B290" s="4"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
-        <f t="shared" si="4"/>
-        <v>2.0000000299999998</v>
+        <f t="shared" ref="A291:A303" si="4">A290+1/3+1/100000000</f>
+        <v>1.6666666866666664</v>
       </c>
       <c r="B291" s="4"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
         <f t="shared" si="4"/>
-        <v>2.3333333733333332</v>
+        <v>2.0000000299999998</v>
       </c>
       <c r="B292" s="4"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
         <f t="shared" si="4"/>
-        <v>2.6666667166666667</v>
+        <v>2.3333333733333332</v>
       </c>
       <c r="B293" s="4"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
         <f t="shared" si="4"/>
-        <v>3.0000000600000001</v>
+        <v>2.6666667166666667</v>
       </c>
       <c r="B294" s="4"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
         <f t="shared" si="4"/>
-        <v>3.3333334033333335</v>
+        <v>3.0000000600000001</v>
       </c>
       <c r="B295" s="4"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
         <f t="shared" si="4"/>
-        <v>3.6666667466666669</v>
+        <v>3.3333334033333335</v>
       </c>
       <c r="B296" s="4"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
         <f t="shared" si="4"/>
-        <v>4.0000000900000003</v>
+        <v>3.6666667466666669</v>
       </c>
       <c r="B297" s="4"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
         <f t="shared" si="4"/>
-        <v>4.3333334333333333</v>
+        <v>4.0000000900000003</v>
       </c>
       <c r="B298" s="4"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
         <f t="shared" si="4"/>
-        <v>4.6666667766666663</v>
+        <v>4.3333334333333333</v>
       </c>
       <c r="B299" s="4"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
         <f t="shared" si="4"/>
-        <v>5.0000001199999993</v>
+        <v>4.6666667766666663</v>
       </c>
       <c r="B300" s="4"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
         <f t="shared" si="4"/>
-        <v>5.3333334633333322</v>
+        <v>5.0000001199999993</v>
       </c>
       <c r="B301" s="4"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A302">
         <f t="shared" si="4"/>
-        <v>5.6666668066666652</v>
+        <v>5.3333334633333322</v>
       </c>
       <c r="B302" s="4"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A303">
+        <f t="shared" si="4"/>
+        <v>5.6666668066666652</v>
+      </c>
+      <c r="B303" s="4"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304">
         <v>6</v>
       </c>
-      <c r="B303" s="4"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A306" t="s">
-        <v>102</v>
-      </c>
+      <c r="B304" s="4"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A323" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A324" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A338" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A353" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A367" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A368" t="s">
+        <v>100</v>
+      </c>
+      <c r="B368" t="s">
+        <v>101</v>
+      </c>
+      <c r="C368" t="s">
+        <v>102</v>
+      </c>
+      <c r="D368" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A322" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A337" t="s">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A369">
+        <v>1</v>
+      </c>
+      <c r="B369">
+        <v>3.5</v>
+      </c>
+      <c r="C369">
+        <f>35/12/A369</f>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="D369">
+        <f>SQRT(C369)</f>
+        <v>1.707825127659933</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A370">
+        <v>2</v>
+      </c>
+      <c r="B370">
+        <v>3.5</v>
+      </c>
+      <c r="C370">
+        <f t="shared" ref="C370:C378" si="5">35/12/A370</f>
+        <v>1.4583333333333333</v>
+      </c>
+      <c r="D370">
+        <f t="shared" ref="D370:D378" si="6">SQRT(C370)</f>
+        <v>1.2076147288491199</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A371">
+        <v>3</v>
+      </c>
+      <c r="B371">
+        <v>3.5</v>
+      </c>
+      <c r="C371">
+        <f t="shared" si="5"/>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="D371">
+        <f t="shared" si="6"/>
+        <v>0.98601329718326935</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A372">
+        <v>4</v>
+      </c>
+      <c r="B372">
+        <v>3.5</v>
+      </c>
+      <c r="C372">
+        <f t="shared" si="5"/>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D372">
+        <f t="shared" si="6"/>
+        <v>0.8539125638299665</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A373">
+        <v>5</v>
+      </c>
+      <c r="B373">
+        <v>3.5</v>
+      </c>
+      <c r="C373">
+        <f t="shared" si="5"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="D373">
+        <f t="shared" si="6"/>
+        <v>0.76376261582597327</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A374">
+        <v>6</v>
+      </c>
+      <c r="B374">
+        <v>3.5</v>
+      </c>
+      <c r="C374">
+        <f t="shared" si="5"/>
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="6"/>
+        <v>0.69721668877839627</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A375">
+        <v>7</v>
+      </c>
+      <c r="B375">
+        <v>3.5</v>
+      </c>
+      <c r="C375">
+        <f t="shared" si="5"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="D375">
+        <f t="shared" si="6"/>
+        <v>0.6454972243679028</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A376">
+        <v>8</v>
+      </c>
+      <c r="B376">
+        <v>3.5</v>
+      </c>
+      <c r="C376">
+        <f t="shared" si="5"/>
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D376">
+        <f t="shared" si="6"/>
+        <v>0.60380736442455996</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A377">
+        <v>9</v>
+      </c>
+      <c r="B377">
+        <v>3.5</v>
+      </c>
+      <c r="C377">
+        <f t="shared" si="5"/>
+        <v>0.32407407407407407</v>
+      </c>
+      <c r="D377">
+        <f t="shared" si="6"/>
+        <v>0.56927504255331107</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A378">
+        <v>10</v>
+      </c>
+      <c r="B378">
+        <v>3.5</v>
+      </c>
+      <c r="C378">
+        <f t="shared" si="5"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="D378">
+        <f t="shared" si="6"/>
+        <v>0.54006172486732162</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A380" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A381" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A352" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A366" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A367" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A368" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A369" t="s">
-        <v>109</v>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A383" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A384" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A385" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A387" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A388" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H172:O178"/>
-    <mergeCell ref="H266:O272"/>
+    <mergeCell ref="H173:O179"/>
+    <mergeCell ref="H267:O273"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="1">
